--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1501698.185942938</v>
+        <v>1514296.030135393</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3579261.874564404</v>
+        <v>3579261.874564406</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>139.718269812072</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>289.7046859959768</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>45.41161064795066</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>122.2091567980547</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>113.7791407974867</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>20.31656064018903</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>200.4661980682387</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>149.1370377385929</v>
+        <v>143.4311025249197</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14.23266789331964</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>250.5438857354299</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>229.4291389066948</v>
       </c>
       <c r="H11" t="n">
         <v>307.1905106593674</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>81.04564725374729</v>
+        <v>209.2963147563306</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>104.1143212645812</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.6549979965568</v>
+        <v>120.3883795465761</v>
       </c>
       <c r="I13" t="n">
         <v>112.926187317851</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>113.7126397096579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>199.3735933975425</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.9037468719268</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2418994515161</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1607,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.1503594893667</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>137.8341177651866</v>
+        <v>68.92273713484475</v>
       </c>
       <c r="U14" t="n">
-        <v>251.093462665775</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5769311005885</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>149.6549979965568</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>112.926187317851</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>115.8617939427594</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.97668823562421</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>412.1503594893667</v>
       </c>
       <c r="H17" t="n">
-        <v>161.9682471183349</v>
+        <v>307.1905106593674</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>88.94383573197297</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>137.1852553240499</v>
+        <v>112.3154708073749</v>
       </c>
       <c r="T17" t="n">
-        <v>209.2963147563306</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.093462665775</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>132.6930496370882</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5769311005885</v>
       </c>
       <c r="H19" t="n">
         <v>149.6549979965568</v>
@@ -2059,13 +2059,13 @@
         <v>286.2418994515161</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>132.752957112864</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>236.7081065312294</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,10 +2096,10 @@
         <v>412.1503594893667</v>
       </c>
       <c r="H20" t="n">
-        <v>73.02441138636189</v>
+        <v>307.1905106593674</v>
       </c>
       <c r="I20" t="n">
-        <v>88.94383573197298</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>149.6549979965568</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>112.926187317851</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>113.7126397096579</v>
       </c>
       <c r="S22" t="n">
-        <v>199.3735933975425</v>
+        <v>146.1651619253781</v>
       </c>
       <c r="T22" t="n">
         <v>221.9037468719268</v>
       </c>
       <c r="U22" t="n">
-        <v>42.75794580683378</v>
+        <v>286.2418994515161</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,10 +2333,10 @@
         <v>412.1503594893667</v>
       </c>
       <c r="H23" t="n">
-        <v>161.9682471183349</v>
+        <v>307.1905106593674</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>88.94383573197297</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>137.1852553240499</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.2963147563306</v>
+        <v>112.315470807374</v>
       </c>
       <c r="U23" t="n">
         <v>251.093462665775</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>56.29409377325883</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5769311005885</v>
       </c>
       <c r="H25" t="n">
-        <v>74.84049590948854</v>
+        <v>149.6549979965568</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.926187317851</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>113.7126397096579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>199.3735933975425</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.9037468719268</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2418994515161</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>257.7021976717264</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>307.1905106593674</v>
       </c>
       <c r="I26" t="n">
-        <v>88.94383573197298</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>137.1852553240499</v>
       </c>
       <c r="T26" t="n">
-        <v>209.2963147563306</v>
+        <v>64.07405121529834</v>
       </c>
       <c r="U26" t="n">
         <v>251.093462665775</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>60.50420823749396</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>199.3735933975425</v>
       </c>
       <c r="T28" t="n">
         <v>221.9037468719268</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2418994515161</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>144.791759707062</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>307.1905106593674</v>
       </c>
       <c r="I29" t="n">
-        <v>88.94383573197298</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>137.1852553240499</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>201.2593065393469</v>
       </c>
       <c r="U29" t="n">
-        <v>226.2236781490999</v>
+        <v>251.093462665775</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>66.06774576579862</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>221.9037468719268</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2418994515161</v>
+        <v>206.0306550071112</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>412.1503594893667</v>
       </c>
       <c r="H32" t="n">
-        <v>161.9682471183349</v>
+        <v>73.02441138636098</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>88.94383573197297</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>156.4823181187195</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5769311005885</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>149.6549979965568</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.926187317851</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.97668823562421</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.1503594893667</v>
+        <v>177.9842602163621</v>
       </c>
       <c r="H35" t="n">
-        <v>299.1535024423839</v>
+        <v>307.1905106593674</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>88.94383573197297</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>137.1852553240499</v>
       </c>
       <c r="T35" t="n">
         <v>209.2963147563306</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5769311005885</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>113.7126397096579</v>
       </c>
       <c r="S37" t="n">
-        <v>199.3735933975425</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.9037468719268</v>
+        <v>159.5695410979056</v>
       </c>
       <c r="U37" t="n">
-        <v>233.0334679793523</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3518,10 +3518,10 @@
         <v>412.1503594893667</v>
       </c>
       <c r="H38" t="n">
-        <v>307.1905106593674</v>
+        <v>161.9682471183357</v>
       </c>
       <c r="I38" t="n">
-        <v>88.94383573197298</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>137.1852553240499</v>
       </c>
       <c r="T38" t="n">
-        <v>112.315470807374</v>
+        <v>209.2963147563306</v>
       </c>
       <c r="U38" t="n">
         <v>251.093462665775</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>221.9037468719268</v>
       </c>
       <c r="U40" t="n">
-        <v>152.3563399456361</v>
+        <v>286.2418994515161</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>7.604911475389494</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3743,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>351.2391879744742</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.1905106593674</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>137.1852553240499</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.2963147563306</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>109.8852258797075</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5769311005885</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>149.6549979965568</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>228.7879812606108</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>202.9028755534752</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3980,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.1503594893667</v>
+        <v>24.29040109555791</v>
       </c>
       <c r="H44" t="n">
-        <v>307.1905106593674</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>137.1852553240499</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>60.0122952670533</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.093462665775</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.7249918652206</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.926187317851</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>113.7126397096579</v>
       </c>
       <c r="S46" t="n">
-        <v>75.31074129751725</v>
+        <v>199.3735933975425</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.9037468719268</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2418994515161</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
         <v>882.8926947117852</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2028.59438369213</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>2028.59438369213</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y2" t="n">
-        <v>1638.455051716319</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>249.9299350185089</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.892406545185</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>1485.892406545185</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.626707938434</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>741.8384553401902</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>330.8525505505826</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2527.191976500749</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2527.191976500749</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2527.191976500749</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2527.191976500749</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.892406545185</v>
+        <v>2153.726218239669</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.892406545185</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>678.1902866356228</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>678.1902866356228</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>678.1902866356228</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>389.0166762901907</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1882.054803223514</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="C8" t="n">
-        <v>1513.092286283102</v>
+        <v>1681.057459319287</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.826587676352</v>
+        <v>1322.791760712536</v>
       </c>
       <c r="E8" t="n">
-        <v>769.0383350781076</v>
+        <v>937.0035081142921</v>
       </c>
       <c r="F8" t="n">
-        <v>358.0524302885</v>
+        <v>526.0176033246846</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>2050.019976259699</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579.9823256406182</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>579.9823256406182</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>429.8656862282825</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>429.8656862282825</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>282.9757387303721</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>113.9759384687045</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
         <v>99.59950625323012</v>
@@ -4990,22 +4990,22 @@
         <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406182</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1502.450547267606</v>
+        <v>1708.9995000325</v>
       </c>
       <c r="C11" t="n">
-        <v>1133.488030327195</v>
+        <v>1340.036983092089</v>
       </c>
       <c r="D11" t="n">
-        <v>775.2223317204441</v>
+        <v>981.7712844853384</v>
       </c>
       <c r="E11" t="n">
-        <v>775.2223317204441</v>
+        <v>595.9830318870941</v>
       </c>
       <c r="F11" t="n">
-        <v>364.2364269308366</v>
+        <v>595.9830318870941</v>
       </c>
       <c r="G11" t="n">
         <v>364.2364269308366</v>
@@ -5039,28 +5039,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>139.5861393588529</v>
+        <v>306.991788379206</v>
       </c>
       <c r="K11" t="n">
-        <v>639.5855085021481</v>
+        <v>577.0981274112197</v>
       </c>
       <c r="L11" t="n">
-        <v>1307.129908529158</v>
+        <v>836.1835829393513</v>
       </c>
       <c r="M11" t="n">
-        <v>1627.081835671177</v>
+        <v>1156.13551008137</v>
       </c>
       <c r="N11" t="n">
-        <v>1956.824727872627</v>
+        <v>1485.878402282821</v>
       </c>
       <c r="O11" t="n">
-        <v>2360.352499314523</v>
+        <v>1783.91000373363</v>
       </c>
       <c r="P11" t="n">
-        <v>2580.214575089041</v>
+        <v>2322.352800597916</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.479157280403</v>
       </c>
       <c r="R11" t="n">
         <v>2697.149091018222</v>
@@ -5069,22 +5069,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2615.284800862922</v>
+        <v>2485.738672072434</v>
       </c>
       <c r="U11" t="n">
-        <v>2615.284800862922</v>
+        <v>2485.738672072434</v>
       </c>
       <c r="V11" t="n">
-        <v>2615.284800862922</v>
+        <v>2485.738672072434</v>
       </c>
       <c r="W11" t="n">
-        <v>2262.516145592808</v>
+        <v>2485.738672072434</v>
       </c>
       <c r="X11" t="n">
-        <v>1889.050387331728</v>
+        <v>2485.738672072434</v>
       </c>
       <c r="Y11" t="n">
-        <v>1889.050387331728</v>
+        <v>2095.599340096622</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>86.13361277892994</v>
+        <v>86.13361277892997</v>
       </c>
       <c r="K12" t="n">
-        <v>219.3073530603052</v>
+        <v>296.9813040189409</v>
       </c>
       <c r="L12" t="n">
-        <v>811.8303645345122</v>
+        <v>522.3723736427235</v>
       </c>
       <c r="M12" t="n">
-        <v>1094.207979947783</v>
+        <v>804.7499890559947</v>
       </c>
       <c r="N12" t="n">
-        <v>1680.270903941495</v>
+        <v>1472.294389083005</v>
       </c>
       <c r="O12" t="n">
-        <v>2326.313222164453</v>
+        <v>2118.336707305963</v>
       </c>
       <c r="P12" t="n">
-        <v>2512.537930004306</v>
+        <v>2304.561415145815</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.105019063707</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>743.3953057555455</v>
+        <v>289.614261481402</v>
       </c>
       <c r="C13" t="n">
-        <v>574.4591228276386</v>
+        <v>289.614261481402</v>
       </c>
       <c r="D13" t="n">
-        <v>424.3424834153028</v>
+        <v>289.614261481402</v>
       </c>
       <c r="E13" t="n">
-        <v>424.3424834153028</v>
+        <v>289.614261481402</v>
       </c>
       <c r="F13" t="n">
-        <v>424.3424834153028</v>
+        <v>289.614261481402</v>
       </c>
       <c r="G13" t="n">
-        <v>319.1765023399683</v>
+        <v>289.614261481402</v>
       </c>
       <c r="H13" t="n">
         <v>168.0098376969816</v>
@@ -5197,7 +5197,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>60.49087321797106</v>
+        <v>60.49087321797107</v>
       </c>
       <c r="K13" t="n">
         <v>201.0879069305836</v>
@@ -5221,28 +5221,28 @@
         <v>1373.825900627333</v>
       </c>
       <c r="R13" t="n">
-        <v>1373.825900627333</v>
+        <v>1258.964648395355</v>
       </c>
       <c r="S13" t="n">
-        <v>1373.825900627333</v>
+        <v>1057.577180317029</v>
       </c>
       <c r="T13" t="n">
-        <v>1373.825900627333</v>
+        <v>833.4319814564971</v>
       </c>
       <c r="U13" t="n">
-        <v>1373.825900627333</v>
+        <v>544.2987496872888</v>
       </c>
       <c r="V13" t="n">
-        <v>1373.825900627333</v>
+        <v>289.614261481402</v>
       </c>
       <c r="W13" t="n">
-        <v>1373.825900627333</v>
+        <v>289.614261481402</v>
       </c>
       <c r="X13" t="n">
-        <v>1145.836349729315</v>
+        <v>289.614261481402</v>
       </c>
       <c r="Y13" t="n">
-        <v>925.0437705857852</v>
+        <v>289.614261481402</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>470.2564762540683</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C14" t="n">
-        <v>470.2564762540683</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D14" t="n">
-        <v>470.2564762540683</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E14" t="n">
-        <v>470.2564762540683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>470.2564762540683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5276,16 +5276,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>306.9917883792059</v>
+        <v>139.586139358853</v>
       </c>
       <c r="K14" t="n">
-        <v>486.087199077048</v>
+        <v>639.5855085021483</v>
       </c>
       <c r="L14" t="n">
-        <v>1153.631599104058</v>
+        <v>1307.129908529158</v>
       </c>
       <c r="M14" t="n">
-        <v>1473.583526246076</v>
+        <v>1627.081835671177</v>
       </c>
       <c r="N14" t="n">
         <v>2014.650964125894</v>
@@ -5306,22 +5306,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2557.922709437226</v>
+        <v>2627.530164619389</v>
       </c>
       <c r="U14" t="n">
-        <v>2304.292949168766</v>
+        <v>2627.530164619389</v>
       </c>
       <c r="V14" t="n">
-        <v>1973.230061825196</v>
+        <v>2296.467277275819</v>
       </c>
       <c r="W14" t="n">
-        <v>1620.461406555082</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="X14" t="n">
-        <v>1246.995648294002</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y14" t="n">
-        <v>856.85631631819</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>86.13361277892994</v>
+        <v>210.9637377659347</v>
       </c>
       <c r="K15" t="n">
-        <v>219.3073530603052</v>
+        <v>605.9580626897629</v>
       </c>
       <c r="L15" t="n">
-        <v>444.6984226840877</v>
+        <v>960.3023732319689</v>
       </c>
       <c r="M15" t="n">
-        <v>1060.732807419769</v>
+        <v>1242.67998864524</v>
       </c>
       <c r="N15" t="n">
-        <v>1364.992762987958</v>
+        <v>1546.939944213429</v>
       </c>
       <c r="O15" t="n">
-        <v>2011.035081210915</v>
+        <v>1803.058566352425</v>
       </c>
       <c r="P15" t="n">
-        <v>2512.537930004306</v>
+        <v>2304.561415145815</v>
       </c>
       <c r="Q15" t="n">
         <v>2587.105019063707</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1101.291892124745</v>
+        <v>336.9460206248885</v>
       </c>
       <c r="C16" t="n">
-        <v>932.3557091968383</v>
+        <v>168.0098376969816</v>
       </c>
       <c r="D16" t="n">
-        <v>782.2390697845026</v>
+        <v>168.0098376969816</v>
       </c>
       <c r="E16" t="n">
-        <v>634.3259762021095</v>
+        <v>168.0098376969816</v>
       </c>
       <c r="F16" t="n">
-        <v>487.4360287041991</v>
+        <v>168.0098376969816</v>
       </c>
       <c r="G16" t="n">
-        <v>319.1765023399683</v>
+        <v>168.0098376969816</v>
       </c>
       <c r="H16" t="n">
         <v>168.0098376969816</v>
@@ -5434,7 +5434,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>60.49087321797106</v>
+        <v>60.49087321797107</v>
       </c>
       <c r="K16" t="n">
         <v>201.0879069305836</v>
@@ -5467,19 +5467,19 @@
         <v>1373.825900627333</v>
       </c>
       <c r="U16" t="n">
-        <v>1373.825900627333</v>
+        <v>1256.793785533636</v>
       </c>
       <c r="V16" t="n">
-        <v>1373.825900627333</v>
+        <v>1256.793785533636</v>
       </c>
       <c r="W16" t="n">
-        <v>1373.825900627333</v>
+        <v>967.3766154966758</v>
       </c>
       <c r="X16" t="n">
-        <v>1373.825900627333</v>
+        <v>739.3870645986584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1282.940356954985</v>
+        <v>518.5944854551283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2196.605214009482</v>
+        <v>2433.136627416558</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.64269706907</v>
+        <v>2064.174110476147</v>
       </c>
       <c r="D17" t="n">
-        <v>1469.37699846232</v>
+        <v>1705.908411869396</v>
       </c>
       <c r="E17" t="n">
-        <v>1083.588745864076</v>
+        <v>1320.120159271152</v>
       </c>
       <c r="F17" t="n">
-        <v>672.6028410744682</v>
+        <v>909.1342544815445</v>
       </c>
       <c r="G17" t="n">
-        <v>256.2893466407644</v>
+        <v>492.8207600478407</v>
       </c>
       <c r="H17" t="n">
-        <v>92.68505662224432</v>
+        <v>182.5273149373685</v>
       </c>
       <c r="I17" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J17" t="n">
-        <v>345.7338631810858</v>
+        <v>345.7338631810871</v>
       </c>
       <c r="K17" t="n">
-        <v>845.733232324381</v>
+        <v>845.7332323243827</v>
       </c>
       <c r="L17" t="n">
-        <v>1518.303290257458</v>
+        <v>1518.303290257461</v>
       </c>
       <c r="M17" t="n">
-        <v>2283.273615557381</v>
+        <v>2283.273615557383</v>
       </c>
       <c r="N17" t="n">
-        <v>3045.989962926696</v>
+        <v>3045.989962926698</v>
       </c>
       <c r="O17" t="n">
-        <v>3721.013743827623</v>
+        <v>3721.013743827625</v>
       </c>
       <c r="P17" t="n">
-        <v>4259.45654069191</v>
+        <v>4259.456540691912</v>
       </c>
       <c r="Q17" t="n">
-        <v>4586.582897374396</v>
+        <v>4586.582897374398</v>
       </c>
       <c r="R17" t="n">
-        <v>4634.252831112216</v>
+        <v>4634.252831112217</v>
       </c>
       <c r="S17" t="n">
-        <v>4495.681866138429</v>
+        <v>4520.802860599717</v>
       </c>
       <c r="T17" t="n">
-        <v>4284.27144719264</v>
+        <v>4520.802860599717</v>
       </c>
       <c r="U17" t="n">
-        <v>4030.641686924181</v>
+        <v>4267.173100331257</v>
       </c>
       <c r="V17" t="n">
-        <v>3699.57879958061</v>
+        <v>3936.110212987686</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.810144310496</v>
+        <v>3583.341557717572</v>
       </c>
       <c r="X17" t="n">
-        <v>2973.344386049416</v>
+        <v>3209.875799456492</v>
       </c>
       <c r="Y17" t="n">
-        <v>2583.205054073604</v>
+        <v>2819.73646748068</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>504.8028957276779</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2683377545628</v>
+        <v>358.2683377545629</v>
       </c>
       <c r="G18" t="n">
-        <v>221.2412203582518</v>
+        <v>221.2412203582519</v>
       </c>
       <c r="H18" t="n">
         <v>124.3263174956723</v>
       </c>
       <c r="I18" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J18" t="n">
-        <v>124.8756875808098</v>
+        <v>124.8756875808099</v>
       </c>
       <c r="K18" t="n">
-        <v>258.0494278621851</v>
+        <v>519.870012504638</v>
       </c>
       <c r="L18" t="n">
-        <v>483.4404974859675</v>
+        <v>1112.393023978845</v>
       </c>
       <c r="M18" t="n">
-        <v>1226.866126011739</v>
+        <v>1394.770639392116</v>
       </c>
       <c r="N18" t="n">
-        <v>2005.675032180046</v>
+        <v>1699.030594960305</v>
       </c>
       <c r="O18" t="n">
-        <v>2365.055296966333</v>
+        <v>2049.777156012795</v>
       </c>
       <c r="P18" t="n">
         <v>2551.280004806185</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>243.851721265231</v>
+        <v>694.0577246836611</v>
       </c>
       <c r="C19" t="n">
-        <v>243.851721265231</v>
+        <v>694.0577246836611</v>
       </c>
       <c r="D19" t="n">
-        <v>243.851721265231</v>
+        <v>694.0577246836611</v>
       </c>
       <c r="E19" t="n">
-        <v>243.851721265231</v>
+        <v>546.144631101268</v>
       </c>
       <c r="F19" t="n">
-        <v>243.851721265231</v>
+        <v>412.1112476294618</v>
       </c>
       <c r="G19" t="n">
         <v>243.851721265231</v>
       </c>
       <c r="H19" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="I19" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J19" t="n">
-        <v>99.23294801985092</v>
+        <v>99.23294801985097</v>
       </c>
       <c r="K19" t="n">
-        <v>239.8299817324634</v>
+        <v>239.8299817324635</v>
       </c>
       <c r="L19" t="n">
-        <v>475.2722136230676</v>
+        <v>475.2722136230677</v>
       </c>
       <c r="M19" t="n">
         <v>733.9021588094008</v>
@@ -5707,16 +5707,16 @@
         <v>922.0472755816785</v>
       </c>
       <c r="V19" t="n">
-        <v>667.3627873757916</v>
+        <v>922.0472755816785</v>
       </c>
       <c r="W19" t="n">
-        <v>377.945617338831</v>
+        <v>922.0472755816785</v>
       </c>
       <c r="X19" t="n">
-        <v>243.851721265231</v>
+        <v>694.0577246836611</v>
       </c>
       <c r="Y19" t="n">
-        <v>243.851721265231</v>
+        <v>694.0577246836611</v>
       </c>
     </row>
     <row r="20">
@@ -5735,31 +5735,31 @@
         <v>1469.37699846232</v>
       </c>
       <c r="E20" t="n">
-        <v>1083.588745864076</v>
+        <v>1230.277900956028</v>
       </c>
       <c r="F20" t="n">
-        <v>672.6028410744682</v>
+        <v>819.2919961664202</v>
       </c>
       <c r="G20" t="n">
-        <v>256.2893466407644</v>
+        <v>402.9785017327164</v>
       </c>
       <c r="H20" t="n">
-        <v>182.5273149373685</v>
+        <v>92.68505662224432</v>
       </c>
       <c r="I20" t="n">
         <v>92.68505662224432</v>
       </c>
       <c r="J20" t="n">
-        <v>345.7338631810869</v>
+        <v>345.7338631810858</v>
       </c>
       <c r="K20" t="n">
-        <v>845.7332323243821</v>
+        <v>845.7332323243811</v>
       </c>
       <c r="L20" t="n">
-        <v>1518.30329025746</v>
+        <v>1518.303290257459</v>
       </c>
       <c r="M20" t="n">
-        <v>2283.273615557382</v>
+        <v>2283.273615557381</v>
       </c>
       <c r="N20" t="n">
         <v>3045.989962926697</v>
@@ -5832,16 +5832,16 @@
         <v>124.8756875808098</v>
       </c>
       <c r="K21" t="n">
-        <v>258.0494278621851</v>
+        <v>258.0494278621852</v>
       </c>
       <c r="L21" t="n">
-        <v>483.4404974859675</v>
+        <v>483.4404974859677</v>
       </c>
       <c r="M21" t="n">
-        <v>1226.866126011739</v>
+        <v>940.2040725750675</v>
       </c>
       <c r="N21" t="n">
-        <v>2005.675032180046</v>
+        <v>1719.012978743375</v>
       </c>
       <c r="O21" t="n">
         <v>2365.055296966333</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3579.603432824852</v>
+        <v>3314.369912305248</v>
       </c>
       <c r="C22" t="n">
-        <v>3579.603432824852</v>
+        <v>3314.369912305248</v>
       </c>
       <c r="D22" t="n">
-        <v>3579.603432824852</v>
+        <v>3314.369912305248</v>
       </c>
       <c r="E22" t="n">
-        <v>3579.603432824852</v>
+        <v>3314.369912305248</v>
       </c>
       <c r="F22" t="n">
-        <v>3579.603432824852</v>
+        <v>3314.369912305248</v>
       </c>
       <c r="G22" t="n">
-        <v>3579.603432824852</v>
+        <v>3314.369912305248</v>
       </c>
       <c r="H22" t="n">
-        <v>3428.436768181866</v>
+        <v>3314.369912305248</v>
       </c>
       <c r="I22" t="n">
         <v>3314.369912305248</v>
@@ -5932,28 +5932,28 @@
         <v>4634.252831112216</v>
       </c>
       <c r="R22" t="n">
-        <v>4519.391578880238</v>
+        <v>4519.391578880239</v>
       </c>
       <c r="S22" t="n">
-        <v>4318.004110801912</v>
+        <v>4371.750001177837</v>
       </c>
       <c r="T22" t="n">
-        <v>4093.85891194138</v>
+        <v>4147.604802317304</v>
       </c>
       <c r="U22" t="n">
-        <v>4050.669067692053</v>
+        <v>3858.471570548096</v>
       </c>
       <c r="V22" t="n">
-        <v>4050.669067692053</v>
+        <v>3603.787082342209</v>
       </c>
       <c r="W22" t="n">
-        <v>3761.251897655092</v>
+        <v>3314.369912305248</v>
       </c>
       <c r="X22" t="n">
-        <v>3761.251897655092</v>
+        <v>3314.369912305248</v>
       </c>
       <c r="Y22" t="n">
-        <v>3761.251897655092</v>
+        <v>3314.369912305248</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2196.605214009482</v>
+        <v>2433.136627416558</v>
       </c>
       <c r="C23" t="n">
-        <v>1827.64269706907</v>
+        <v>2064.174110476147</v>
       </c>
       <c r="D23" t="n">
-        <v>1469.37699846232</v>
+        <v>1705.908411869396</v>
       </c>
       <c r="E23" t="n">
-        <v>1083.588745864076</v>
+        <v>1320.120159271152</v>
       </c>
       <c r="F23" t="n">
-        <v>672.6028410744682</v>
+        <v>909.1342544815445</v>
       </c>
       <c r="G23" t="n">
-        <v>256.2893466407644</v>
+        <v>492.8207600478407</v>
       </c>
       <c r="H23" t="n">
-        <v>92.68505662224432</v>
+        <v>182.5273149373685</v>
       </c>
       <c r="I23" t="n">
         <v>92.68505662224432</v>
       </c>
       <c r="J23" t="n">
-        <v>345.7338631810862</v>
+        <v>345.733863181086</v>
       </c>
       <c r="K23" t="n">
-        <v>845.7332323243813</v>
+        <v>845.7332323243812</v>
       </c>
       <c r="L23" t="n">
-        <v>1518.303290257459</v>
+        <v>1518.303290257458</v>
       </c>
       <c r="M23" t="n">
-        <v>2283.273615557382</v>
+        <v>2283.273615557381</v>
       </c>
       <c r="N23" t="n">
-        <v>3045.989962926697</v>
+        <v>3045.989962926696</v>
       </c>
       <c r="O23" t="n">
-        <v>3721.013743827624</v>
+        <v>3721.013743827623</v>
       </c>
       <c r="P23" t="n">
         <v>4259.45654069191</v>
@@ -6014,25 +6014,25 @@
         <v>4634.252831112216</v>
       </c>
       <c r="S23" t="n">
-        <v>4495.681866138429</v>
+        <v>4634.252831112216</v>
       </c>
       <c r="T23" t="n">
-        <v>4284.27144719264</v>
+        <v>4520.802860599717</v>
       </c>
       <c r="U23" t="n">
-        <v>4030.641686924181</v>
+        <v>4267.173100331257</v>
       </c>
       <c r="V23" t="n">
-        <v>3699.57879958061</v>
+        <v>3936.110212987686</v>
       </c>
       <c r="W23" t="n">
-        <v>3346.810144310496</v>
+        <v>3583.341557717572</v>
       </c>
       <c r="X23" t="n">
-        <v>2973.344386049416</v>
+        <v>3209.875799456492</v>
       </c>
       <c r="Y23" t="n">
-        <v>2583.205054073604</v>
+        <v>2819.73646748068</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>124.8756875808098</v>
       </c>
       <c r="K24" t="n">
-        <v>258.0494278621851</v>
+        <v>258.0494278621852</v>
       </c>
       <c r="L24" t="n">
-        <v>483.4404974859675</v>
+        <v>483.4404974859677</v>
       </c>
       <c r="M24" t="n">
-        <v>1226.866126011739</v>
+        <v>940.2040725750675</v>
       </c>
       <c r="N24" t="n">
-        <v>2005.675032180046</v>
+        <v>1719.012978743375</v>
       </c>
       <c r="O24" t="n">
-        <v>2261.793654319041</v>
+        <v>2365.055296966333</v>
       </c>
       <c r="P24" t="n">
         <v>2551.280004806185</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.1373805574253</v>
+        <v>583.0408244891687</v>
       </c>
       <c r="C25" t="n">
-        <v>613.2011976295184</v>
+        <v>583.0408244891687</v>
       </c>
       <c r="D25" t="n">
-        <v>463.0845582171827</v>
+        <v>583.0408244891687</v>
       </c>
       <c r="E25" t="n">
-        <v>315.1714646347896</v>
+        <v>583.0408244891687</v>
       </c>
       <c r="F25" t="n">
-        <v>168.2815171368792</v>
+        <v>526.178103506079</v>
       </c>
       <c r="G25" t="n">
-        <v>168.2815171368792</v>
+        <v>357.9185771418481</v>
       </c>
       <c r="H25" t="n">
-        <v>92.68505662224432</v>
+        <v>206.7519124988615</v>
       </c>
       <c r="I25" t="n">
         <v>92.68505662224432</v>
       </c>
       <c r="J25" t="n">
-        <v>99.23294801985092</v>
+        <v>99.23294801985094</v>
       </c>
       <c r="K25" t="n">
-        <v>239.8299817324634</v>
+        <v>239.8299817324635</v>
       </c>
       <c r="L25" t="n">
         <v>475.2722136230676</v>
@@ -6169,28 +6169,28 @@
         <v>1412.567975429213</v>
       </c>
       <c r="R25" t="n">
-        <v>1412.567975429213</v>
+        <v>1297.706723197235</v>
       </c>
       <c r="S25" t="n">
-        <v>1412.567975429213</v>
+        <v>1096.319255118909</v>
       </c>
       <c r="T25" t="n">
-        <v>1412.567975429213</v>
+        <v>872.1740562583769</v>
       </c>
       <c r="U25" t="n">
-        <v>1412.567975429213</v>
+        <v>583.0408244891687</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.567975429213</v>
+        <v>583.0408244891687</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.567975429213</v>
+        <v>583.0408244891687</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.578424531195</v>
+        <v>583.0408244891687</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.7858453876651</v>
+        <v>583.0408244891687</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2335.176178983269</v>
+        <v>2343.294369101434</v>
       </c>
       <c r="C26" t="n">
-        <v>1966.213662042857</v>
+        <v>1974.331852161023</v>
       </c>
       <c r="D26" t="n">
-        <v>1705.908411869396</v>
+        <v>1616.066153554272</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.120159271152</v>
+        <v>1230.277900956028</v>
       </c>
       <c r="F26" t="n">
-        <v>909.1342544815445</v>
+        <v>819.2919961664203</v>
       </c>
       <c r="G26" t="n">
-        <v>492.8207600478407</v>
+        <v>402.9785017327165</v>
       </c>
       <c r="H26" t="n">
-        <v>182.5273149373685</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="I26" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J26" t="n">
-        <v>345.7338631810859</v>
+        <v>345.7338631810871</v>
       </c>
       <c r="K26" t="n">
-        <v>845.7332323243811</v>
+        <v>845.7332323243827</v>
       </c>
       <c r="L26" t="n">
-        <v>1518.303290257459</v>
+        <v>1518.303290257461</v>
       </c>
       <c r="M26" t="n">
-        <v>2283.273615557382</v>
+        <v>2283.273615557383</v>
       </c>
       <c r="N26" t="n">
-        <v>3045.989962926697</v>
+        <v>3045.989962926698</v>
       </c>
       <c r="O26" t="n">
-        <v>3721.013743827623</v>
+        <v>3721.013743827625</v>
       </c>
       <c r="P26" t="n">
-        <v>4259.45654069191</v>
+        <v>4259.456540691912</v>
       </c>
       <c r="Q26" t="n">
-        <v>4586.582897374397</v>
+        <v>4586.582897374398</v>
       </c>
       <c r="R26" t="n">
-        <v>4634.252831112216</v>
+        <v>4634.252831112217</v>
       </c>
       <c r="S26" t="n">
-        <v>4634.252831112216</v>
+        <v>4495.68186613843</v>
       </c>
       <c r="T26" t="n">
-        <v>4422.842412166427</v>
+        <v>4430.960602284593</v>
       </c>
       <c r="U26" t="n">
-        <v>4169.212651897968</v>
+        <v>4177.330842016133</v>
       </c>
       <c r="V26" t="n">
-        <v>3838.149764554397</v>
+        <v>3846.267954672562</v>
       </c>
       <c r="W26" t="n">
-        <v>3485.381109284283</v>
+        <v>3493.499299402448</v>
       </c>
       <c r="X26" t="n">
-        <v>3111.915351023203</v>
+        <v>3120.033541141368</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.776019047391</v>
+        <v>2729.894209165556</v>
       </c>
     </row>
     <row r="27">
@@ -6291,31 +6291,31 @@
         <v>504.8028957276779</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2683377545628</v>
+        <v>358.2683377545629</v>
       </c>
       <c r="G27" t="n">
-        <v>221.2412203582518</v>
+        <v>221.2412203582519</v>
       </c>
       <c r="H27" t="n">
         <v>124.3263174956723</v>
       </c>
       <c r="I27" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J27" t="n">
-        <v>124.8756875808098</v>
+        <v>124.8756875808099</v>
       </c>
       <c r="K27" t="n">
-        <v>258.0494278621851</v>
+        <v>258.0494278621852</v>
       </c>
       <c r="L27" t="n">
-        <v>483.4404974859675</v>
+        <v>483.4404974859677</v>
       </c>
       <c r="M27" t="n">
-        <v>1226.866126011739</v>
+        <v>940.2040725750675</v>
       </c>
       <c r="N27" t="n">
-        <v>2005.675032180046</v>
+        <v>1719.012978743375</v>
       </c>
       <c r="O27" t="n">
         <v>2365.055296966333</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>411.737878962487</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="C28" t="n">
-        <v>242.8016960345801</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="D28" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="E28" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="F28" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="G28" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="H28" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="I28" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J28" t="n">
-        <v>99.23294801985092</v>
+        <v>99.23294801985097</v>
       </c>
       <c r="K28" t="n">
-        <v>239.8299817324634</v>
+        <v>239.8299817324635</v>
       </c>
       <c r="L28" t="n">
-        <v>475.2722136230676</v>
+        <v>475.2722136230677</v>
       </c>
       <c r="M28" t="n">
         <v>733.9021588094008</v>
@@ -6406,28 +6406,28 @@
         <v>1412.567975429213</v>
       </c>
       <c r="R28" t="n">
-        <v>1412.567975429213</v>
+        <v>1351.452613573158</v>
       </c>
       <c r="S28" t="n">
-        <v>1412.567975429213</v>
+        <v>1150.065145494832</v>
       </c>
       <c r="T28" t="n">
-        <v>1188.42277656868</v>
+        <v>925.9199466343001</v>
       </c>
       <c r="U28" t="n">
-        <v>1188.42277656868</v>
+        <v>636.7867148650919</v>
       </c>
       <c r="V28" t="n">
-        <v>1188.42277656868</v>
+        <v>382.102226659205</v>
       </c>
       <c r="W28" t="n">
-        <v>1042.168473834274</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="X28" t="n">
-        <v>814.1789229362569</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="Y28" t="n">
-        <v>593.3863437927267</v>
+        <v>92.68505662224435</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2433.136627416558</v>
+        <v>2343.294369101434</v>
       </c>
       <c r="C29" t="n">
-        <v>2064.174110476147</v>
+        <v>1974.331852161022</v>
       </c>
       <c r="D29" t="n">
-        <v>1705.908411869396</v>
+        <v>1616.066153554272</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.120159271152</v>
+        <v>1230.277900956028</v>
       </c>
       <c r="F29" t="n">
-        <v>909.1342544815445</v>
+        <v>819.2919961664202</v>
       </c>
       <c r="G29" t="n">
-        <v>492.8207600478407</v>
+        <v>402.9785017327164</v>
       </c>
       <c r="H29" t="n">
-        <v>182.5273149373685</v>
+        <v>92.68505662224432</v>
       </c>
       <c r="I29" t="n">
         <v>92.68505662224432</v>
       </c>
       <c r="J29" t="n">
-        <v>345.7338631810862</v>
+        <v>345.733863181086</v>
       </c>
       <c r="K29" t="n">
-        <v>845.7332323243817</v>
+        <v>845.7332323243812</v>
       </c>
       <c r="L29" t="n">
-        <v>1518.303290257459</v>
+        <v>1518.303290257458</v>
       </c>
       <c r="M29" t="n">
-        <v>2283.273615557382</v>
+        <v>2283.273615557381</v>
       </c>
       <c r="N29" t="n">
-        <v>3045.989962926697</v>
+        <v>3045.989962926696</v>
       </c>
       <c r="O29" t="n">
         <v>3721.013743827623</v>
@@ -6488,25 +6488,25 @@
         <v>4634.252831112216</v>
       </c>
       <c r="S29" t="n">
-        <v>4495.681866138429</v>
+        <v>4634.252831112216</v>
       </c>
       <c r="T29" t="n">
-        <v>4495.681866138429</v>
+        <v>4430.960602284593</v>
       </c>
       <c r="U29" t="n">
-        <v>4267.173100331257</v>
+        <v>4177.330842016133</v>
       </c>
       <c r="V29" t="n">
-        <v>3936.110212987686</v>
+        <v>3846.267954672562</v>
       </c>
       <c r="W29" t="n">
-        <v>3583.341557717572</v>
+        <v>3493.499299402448</v>
       </c>
       <c r="X29" t="n">
-        <v>3209.875799456492</v>
+        <v>3120.033541141368</v>
       </c>
       <c r="Y29" t="n">
-        <v>2819.73646748068</v>
+        <v>2729.894209165556</v>
       </c>
     </row>
     <row r="30">
@@ -6543,16 +6543,16 @@
         <v>124.8756875808098</v>
       </c>
       <c r="K30" t="n">
-        <v>258.0494278621851</v>
+        <v>258.0494278621852</v>
       </c>
       <c r="L30" t="n">
-        <v>657.8264571617965</v>
+        <v>483.4404974859677</v>
       </c>
       <c r="M30" t="n">
-        <v>940.2040725750676</v>
+        <v>1226.866126011739</v>
       </c>
       <c r="N30" t="n">
-        <v>1719.012978743375</v>
+        <v>2005.675032180046</v>
       </c>
       <c r="O30" t="n">
         <v>2365.055296966333</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3550.041191966285</v>
+        <v>3483.306095233155</v>
       </c>
       <c r="C31" t="n">
-        <v>3381.105009038378</v>
+        <v>3314.369912305248</v>
       </c>
       <c r="D31" t="n">
-        <v>3381.105009038378</v>
+        <v>3314.369912305248</v>
       </c>
       <c r="E31" t="n">
         <v>3314.369912305248</v>
@@ -6643,28 +6643,28 @@
         <v>4634.252831112216</v>
       </c>
       <c r="R31" t="n">
-        <v>4519.391578880238</v>
+        <v>4519.391578880239</v>
       </c>
       <c r="S31" t="n">
-        <v>4318.004110801912</v>
+        <v>4318.004110801913</v>
       </c>
       <c r="T31" t="n">
-        <v>4093.85891194138</v>
+        <v>4093.858911941381</v>
       </c>
       <c r="U31" t="n">
-        <v>3804.725680172172</v>
+        <v>3885.747139206925</v>
       </c>
       <c r="V31" t="n">
-        <v>3550.041191966285</v>
+        <v>3885.747139206925</v>
       </c>
       <c r="W31" t="n">
-        <v>3550.041191966285</v>
+        <v>3885.747139206925</v>
       </c>
       <c r="X31" t="n">
-        <v>3550.041191966285</v>
+        <v>3885.747139206925</v>
       </c>
       <c r="Y31" t="n">
-        <v>3550.041191966285</v>
+        <v>3664.954560063395</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2196.605214009482</v>
+        <v>2196.605214009481</v>
       </c>
       <c r="C32" t="n">
         <v>1827.64269706907</v>
       </c>
       <c r="D32" t="n">
-        <v>1469.37699846232</v>
+        <v>1469.376998462319</v>
       </c>
       <c r="E32" t="n">
-        <v>1083.588745864076</v>
+        <v>1083.588745864075</v>
       </c>
       <c r="F32" t="n">
-        <v>672.6028410744682</v>
+        <v>672.6028410744673</v>
       </c>
       <c r="G32" t="n">
-        <v>256.2893466407644</v>
+        <v>256.2893466407635</v>
       </c>
       <c r="H32" t="n">
-        <v>92.68505662224432</v>
+        <v>182.5273149373685</v>
       </c>
       <c r="I32" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J32" t="n">
-        <v>345.7338631810858</v>
+        <v>345.7338631810859</v>
       </c>
       <c r="K32" t="n">
-        <v>845.7332323243812</v>
+        <v>845.7332323243811</v>
       </c>
       <c r="L32" t="n">
         <v>1518.303290257459</v>
@@ -6713,37 +6713,37 @@
         <v>3045.989962926696</v>
       </c>
       <c r="O32" t="n">
-        <v>3721.013743827624</v>
+        <v>3721.013743827623</v>
       </c>
       <c r="P32" t="n">
         <v>4259.45654069191</v>
       </c>
       <c r="Q32" t="n">
-        <v>4586.582897374397</v>
+        <v>4586.582897374396</v>
       </c>
       <c r="R32" t="n">
-        <v>4634.252831112216</v>
+        <v>4634.252831112215</v>
       </c>
       <c r="S32" t="n">
-        <v>4495.681866138429</v>
+        <v>4495.681866138428</v>
       </c>
       <c r="T32" t="n">
-        <v>4284.27144719264</v>
+        <v>4284.271447192639</v>
       </c>
       <c r="U32" t="n">
-        <v>4030.641686924181</v>
+        <v>4030.64168692418</v>
       </c>
       <c r="V32" t="n">
-        <v>3699.57879958061</v>
+        <v>3699.578799580609</v>
       </c>
       <c r="W32" t="n">
-        <v>3346.810144310496</v>
+        <v>3346.810144310495</v>
       </c>
       <c r="X32" t="n">
-        <v>2973.344386049416</v>
+        <v>2973.344386049415</v>
       </c>
       <c r="Y32" t="n">
-        <v>2583.205054073604</v>
+        <v>2583.205054073603</v>
       </c>
     </row>
     <row r="33">
@@ -6765,31 +6765,31 @@
         <v>504.8028957276779</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2683377545628</v>
+        <v>358.2683377545629</v>
       </c>
       <c r="G33" t="n">
-        <v>221.2412203582518</v>
+        <v>221.2412203582519</v>
       </c>
       <c r="H33" t="n">
         <v>124.3263174956723</v>
       </c>
       <c r="I33" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J33" t="n">
-        <v>124.8756875808098</v>
+        <v>124.8756875808099</v>
       </c>
       <c r="K33" t="n">
-        <v>258.0494278621851</v>
+        <v>258.0494278621852</v>
       </c>
       <c r="L33" t="n">
-        <v>671.3273946494147</v>
+        <v>483.4404974859677</v>
       </c>
       <c r="M33" t="n">
-        <v>1414.753023175186</v>
+        <v>1226.866126011739</v>
       </c>
       <c r="N33" t="n">
-        <v>1719.012978743375</v>
+        <v>2005.675032180046</v>
       </c>
       <c r="O33" t="n">
         <v>2365.055296966333</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1140.033966926625</v>
+        <v>261.6212395501512</v>
       </c>
       <c r="C34" t="n">
-        <v>971.0977839987182</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="D34" t="n">
-        <v>820.9811445863825</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="E34" t="n">
-        <v>673.0680510039894</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="F34" t="n">
-        <v>526.178103506079</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="G34" t="n">
-        <v>357.9185771418481</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="H34" t="n">
-        <v>206.7519124988615</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="I34" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J34" t="n">
-        <v>99.23294801985092</v>
+        <v>99.23294801985097</v>
       </c>
       <c r="K34" t="n">
-        <v>239.8299817324634</v>
+        <v>239.8299817324635</v>
       </c>
       <c r="L34" t="n">
-        <v>475.2722136230676</v>
+        <v>475.2722136230677</v>
       </c>
       <c r="M34" t="n">
         <v>733.9021588094008</v>
@@ -6892,16 +6892,16 @@
         <v>1412.567975429213</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.567975429213</v>
+        <v>1157.883487223326</v>
       </c>
       <c r="W34" t="n">
-        <v>1412.567975429213</v>
+        <v>868.4663171863649</v>
       </c>
       <c r="X34" t="n">
-        <v>1412.567975429213</v>
+        <v>640.4767662883476</v>
       </c>
       <c r="Y34" t="n">
-        <v>1321.682431756865</v>
+        <v>419.6841871448174</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2335.176178983269</v>
+        <v>2196.605214009483</v>
       </c>
       <c r="C35" t="n">
-        <v>1966.213662042857</v>
+        <v>1827.642697069071</v>
       </c>
       <c r="D35" t="n">
-        <v>1607.947963436107</v>
+        <v>1469.376998462321</v>
       </c>
       <c r="E35" t="n">
-        <v>1222.159710837863</v>
+        <v>1083.588745864077</v>
       </c>
       <c r="F35" t="n">
-        <v>811.1738060482551</v>
+        <v>672.6028410744691</v>
       </c>
       <c r="G35" t="n">
-        <v>394.8603116145513</v>
+        <v>492.8207600478407</v>
       </c>
       <c r="H35" t="n">
-        <v>92.68505662224432</v>
+        <v>182.5273149373685</v>
       </c>
       <c r="I35" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J35" t="n">
-        <v>345.7338631810858</v>
+        <v>345.7338631810867</v>
       </c>
       <c r="K35" t="n">
-        <v>845.733232324381</v>
+        <v>845.7332323243822</v>
       </c>
       <c r="L35" t="n">
-        <v>1518.303290257458</v>
+        <v>1518.303290257459</v>
       </c>
       <c r="M35" t="n">
-        <v>2283.273615557381</v>
+        <v>2283.273615557382</v>
       </c>
       <c r="N35" t="n">
-        <v>3045.989962926696</v>
+        <v>3045.989962926697</v>
       </c>
       <c r="O35" t="n">
-        <v>3721.013743827623</v>
+        <v>3721.013743827625</v>
       </c>
       <c r="P35" t="n">
-        <v>4259.45654069191</v>
+        <v>4259.456540691911</v>
       </c>
       <c r="Q35" t="n">
-        <v>4586.582897374396</v>
+        <v>4586.582897374398</v>
       </c>
       <c r="R35" t="n">
-        <v>4634.252831112216</v>
+        <v>4634.252831112217</v>
       </c>
       <c r="S35" t="n">
-        <v>4634.252831112216</v>
+        <v>4495.68186613843</v>
       </c>
       <c r="T35" t="n">
-        <v>4422.842412166427</v>
+        <v>4284.271447192641</v>
       </c>
       <c r="U35" t="n">
-        <v>4169.212651897968</v>
+        <v>4030.641686924182</v>
       </c>
       <c r="V35" t="n">
-        <v>3838.149764554397</v>
+        <v>3699.578799580611</v>
       </c>
       <c r="W35" t="n">
-        <v>3485.381109284283</v>
+        <v>3346.810144310497</v>
       </c>
       <c r="X35" t="n">
-        <v>3111.915351023203</v>
+        <v>2973.344386049417</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.776019047391</v>
+        <v>2583.205054073605</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8028957276779</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2683377545628</v>
+        <v>358.2683377545629</v>
       </c>
       <c r="G36" t="n">
-        <v>221.2412203582518</v>
+        <v>221.2412203582519</v>
       </c>
       <c r="H36" t="n">
         <v>124.3263174956723</v>
       </c>
       <c r="I36" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J36" t="n">
-        <v>124.8756875808098</v>
+        <v>124.8756875808099</v>
       </c>
       <c r="K36" t="n">
-        <v>258.0494278621851</v>
+        <v>258.0494278621852</v>
       </c>
       <c r="L36" t="n">
-        <v>483.4404974859675</v>
+        <v>483.4404974859677</v>
       </c>
       <c r="M36" t="n">
-        <v>1206.776508316695</v>
+        <v>1226.866126011739</v>
       </c>
       <c r="N36" t="n">
-        <v>1511.036463884884</v>
+        <v>2005.675032180046</v>
       </c>
       <c r="O36" t="n">
-        <v>2157.078782107842</v>
+        <v>2365.055296966333</v>
       </c>
       <c r="P36" t="n">
-        <v>2343.303489947694</v>
+        <v>2551.280004806185</v>
       </c>
       <c r="Q36" t="n">
         <v>2625.847093865586</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.68505662224432</v>
+        <v>3948.572208507633</v>
       </c>
       <c r="C37" t="n">
-        <v>92.68505662224432</v>
+        <v>3779.636025579726</v>
       </c>
       <c r="D37" t="n">
-        <v>92.68505662224432</v>
+        <v>3629.51938616739</v>
       </c>
       <c r="E37" t="n">
-        <v>92.68505662224432</v>
+        <v>3629.51938616739</v>
       </c>
       <c r="F37" t="n">
-        <v>92.68505662224432</v>
+        <v>3482.62943866948</v>
       </c>
       <c r="G37" t="n">
-        <v>92.68505662224432</v>
+        <v>3314.369912305249</v>
       </c>
       <c r="H37" t="n">
-        <v>92.68505662224432</v>
+        <v>3314.369912305249</v>
       </c>
       <c r="I37" t="n">
-        <v>92.68505662224432</v>
+        <v>3314.369912305249</v>
       </c>
       <c r="J37" t="n">
-        <v>99.23294801985092</v>
+        <v>3320.917803702856</v>
       </c>
       <c r="K37" t="n">
-        <v>239.8299817324634</v>
+        <v>3461.514837415468</v>
       </c>
       <c r="L37" t="n">
-        <v>475.2722136230676</v>
+        <v>3696.957069306072</v>
       </c>
       <c r="M37" t="n">
-        <v>733.9021588094008</v>
+        <v>3955.587014492406</v>
       </c>
       <c r="N37" t="n">
-        <v>991.817078387407</v>
+        <v>4213.501934070412</v>
       </c>
       <c r="O37" t="n">
-        <v>1214.026955842607</v>
+        <v>4435.711811525612</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.645211719204</v>
+        <v>4602.330067402208</v>
       </c>
       <c r="Q37" t="n">
-        <v>1412.567975429213</v>
+        <v>4634.252831112217</v>
       </c>
       <c r="R37" t="n">
-        <v>1297.706723197235</v>
+        <v>4519.391578880239</v>
       </c>
       <c r="S37" t="n">
-        <v>1096.319255118909</v>
+        <v>4519.391578880239</v>
       </c>
       <c r="T37" t="n">
-        <v>872.1740562583769</v>
+        <v>4358.21022423589</v>
       </c>
       <c r="U37" t="n">
-        <v>636.7867148650918</v>
+        <v>4358.21022423589</v>
       </c>
       <c r="V37" t="n">
-        <v>382.1022266592049</v>
+        <v>4358.21022423589</v>
       </c>
       <c r="W37" t="n">
-        <v>92.68505662224432</v>
+        <v>4358.21022423589</v>
       </c>
       <c r="X37" t="n">
-        <v>92.68505662224432</v>
+        <v>4130.220673337873</v>
       </c>
       <c r="Y37" t="n">
-        <v>92.68505662224432</v>
+        <v>4130.220673337873</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2433.136627416558</v>
+        <v>2196.605214009483</v>
       </c>
       <c r="C38" t="n">
-        <v>2064.174110476147</v>
+        <v>1827.642697069071</v>
       </c>
       <c r="D38" t="n">
-        <v>1705.908411869396</v>
+        <v>1469.376998462321</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.120159271152</v>
+        <v>1083.588745864077</v>
       </c>
       <c r="F38" t="n">
-        <v>909.1342544815445</v>
+        <v>672.6028410744691</v>
       </c>
       <c r="G38" t="n">
-        <v>492.8207600478407</v>
+        <v>256.2893466407653</v>
       </c>
       <c r="H38" t="n">
-        <v>182.5273149373685</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="I38" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J38" t="n">
-        <v>345.7338631810858</v>
+        <v>345.7338631810859</v>
       </c>
       <c r="K38" t="n">
-        <v>845.733232324381</v>
+        <v>845.7332323243811</v>
       </c>
       <c r="L38" t="n">
-        <v>1518.303290257458</v>
+        <v>1518.303290257459</v>
       </c>
       <c r="M38" t="n">
-        <v>2283.273615557382</v>
+        <v>2283.273615557381</v>
       </c>
       <c r="N38" t="n">
-        <v>3045.989962926697</v>
+        <v>3045.989962926696</v>
       </c>
       <c r="O38" t="n">
-        <v>3721.013743827624</v>
+        <v>3721.013743827623</v>
       </c>
       <c r="P38" t="n">
-        <v>4259.456540691911</v>
+        <v>4259.45654069191</v>
       </c>
       <c r="Q38" t="n">
-        <v>4586.582897374397</v>
+        <v>4586.582897374396</v>
       </c>
       <c r="R38" t="n">
-        <v>4634.252831112216</v>
+        <v>4634.252831112217</v>
       </c>
       <c r="S38" t="n">
-        <v>4634.252831112216</v>
+        <v>4495.68186613843</v>
       </c>
       <c r="T38" t="n">
-        <v>4520.802860599717</v>
+        <v>4284.271447192641</v>
       </c>
       <c r="U38" t="n">
-        <v>4267.173100331257</v>
+        <v>4030.641686924182</v>
       </c>
       <c r="V38" t="n">
-        <v>3936.110212987686</v>
+        <v>3699.578799580611</v>
       </c>
       <c r="W38" t="n">
-        <v>3583.341557717572</v>
+        <v>3346.810144310497</v>
       </c>
       <c r="X38" t="n">
-        <v>3209.875799456492</v>
+        <v>2973.344386049417</v>
       </c>
       <c r="Y38" t="n">
-        <v>2819.73646748068</v>
+        <v>2583.205054073605</v>
       </c>
     </row>
     <row r="39">
@@ -7239,31 +7239,31 @@
         <v>504.8028957276779</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2683377545628</v>
+        <v>358.2683377545629</v>
       </c>
       <c r="G39" t="n">
-        <v>221.2412203582518</v>
+        <v>221.2412203582519</v>
       </c>
       <c r="H39" t="n">
         <v>124.3263174956723</v>
       </c>
       <c r="I39" t="n">
-        <v>92.68505662224432</v>
+        <v>92.68505662224435</v>
       </c>
       <c r="J39" t="n">
-        <v>124.8756875808098</v>
+        <v>124.8756875808099</v>
       </c>
       <c r="K39" t="n">
-        <v>258.0494278621851</v>
+        <v>258.0494278621852</v>
       </c>
       <c r="L39" t="n">
-        <v>483.4404974859675</v>
+        <v>483.4404974859677</v>
       </c>
       <c r="M39" t="n">
-        <v>1226.866126011739</v>
+        <v>940.2040725750675</v>
       </c>
       <c r="N39" t="n">
-        <v>2005.675032180046</v>
+        <v>1719.012978743375</v>
       </c>
       <c r="O39" t="n">
         <v>2365.055296966333</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>242.8016960345801</v>
+        <v>3314.369912305249</v>
       </c>
       <c r="C40" t="n">
-        <v>242.8016960345801</v>
+        <v>3314.369912305249</v>
       </c>
       <c r="D40" t="n">
-        <v>92.68505662224432</v>
+        <v>3314.369912305249</v>
       </c>
       <c r="E40" t="n">
-        <v>92.68505662224432</v>
+        <v>3314.369912305249</v>
       </c>
       <c r="F40" t="n">
-        <v>92.68505662224432</v>
+        <v>3314.369912305249</v>
       </c>
       <c r="G40" t="n">
-        <v>92.68505662224432</v>
+        <v>3314.369912305249</v>
       </c>
       <c r="H40" t="n">
-        <v>92.68505662224432</v>
+        <v>3314.369912305249</v>
       </c>
       <c r="I40" t="n">
-        <v>92.68505662224432</v>
+        <v>3314.369912305249</v>
       </c>
       <c r="J40" t="n">
-        <v>99.23294801985092</v>
+        <v>3320.917803702856</v>
       </c>
       <c r="K40" t="n">
-        <v>239.8299817324634</v>
+        <v>3461.514837415468</v>
       </c>
       <c r="L40" t="n">
-        <v>475.2722136230676</v>
+        <v>3696.957069306072</v>
       </c>
       <c r="M40" t="n">
-        <v>733.9021588094008</v>
+        <v>3955.587014492406</v>
       </c>
       <c r="N40" t="n">
-        <v>991.817078387407</v>
+        <v>4213.501934070412</v>
       </c>
       <c r="O40" t="n">
-        <v>1214.026955842607</v>
+        <v>4435.711811525612</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.645211719204</v>
+        <v>4602.330067402208</v>
       </c>
       <c r="Q40" t="n">
-        <v>1412.567975429213</v>
+        <v>4634.252831112217</v>
       </c>
       <c r="R40" t="n">
-        <v>1297.706723197235</v>
+        <v>4519.391578880239</v>
       </c>
       <c r="S40" t="n">
-        <v>1096.319255118909</v>
+        <v>4318.004110801913</v>
       </c>
       <c r="T40" t="n">
-        <v>872.1740562583769</v>
+        <v>4093.858911941381</v>
       </c>
       <c r="U40" t="n">
-        <v>718.278763383997</v>
+        <v>3804.725680172173</v>
       </c>
       <c r="V40" t="n">
-        <v>463.5942751781101</v>
+        <v>3550.041191966286</v>
       </c>
       <c r="W40" t="n">
-        <v>463.5942751781101</v>
+        <v>3542.359463203266</v>
       </c>
       <c r="X40" t="n">
-        <v>463.5942751781101</v>
+        <v>3314.369912305249</v>
       </c>
       <c r="Y40" t="n">
-        <v>242.8016960345801</v>
+        <v>3314.369912305249</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>733.1989438712483</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>364.2364269308366</v>
       </c>
       <c r="D41" t="n">
-        <v>819.715945170047</v>
+        <v>364.2364269308366</v>
       </c>
       <c r="E41" t="n">
-        <v>819.715945170047</v>
+        <v>364.2364269308366</v>
       </c>
       <c r="F41" t="n">
-        <v>408.7300403804394</v>
+        <v>364.2364269308366</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>364.2364269308366</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7409,19 +7409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>139.5861393588529</v>
+        <v>197.4123756121195</v>
       </c>
       <c r="K41" t="n">
-        <v>327.8989461792144</v>
+        <v>697.4117447554148</v>
       </c>
       <c r="L41" t="n">
-        <v>995.4433462062244</v>
+        <v>1364.956144782425</v>
       </c>
       <c r="M41" t="n">
-        <v>1315.395273348243</v>
+        <v>1684.908071924443</v>
       </c>
       <c r="N41" t="n">
-        <v>1645.138165549693</v>
+        <v>2014.650964125894</v>
       </c>
       <c r="O41" t="n">
         <v>2312.682565576703</v>
@@ -7436,25 +7436,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2558.578126044435</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2347.167707098646</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2347.167707098646</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2236.172529442376</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1883.403874172262</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1509.938115911182</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1119.79878393537</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>86.13361277892994</v>
+        <v>86.13361277892997</v>
       </c>
       <c r="K42" t="n">
-        <v>219.3073530603052</v>
+        <v>219.3073530603053</v>
       </c>
       <c r="L42" t="n">
-        <v>778.3551920064974</v>
+        <v>444.6984226840879</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.732807419769</v>
+        <v>1012.726503914485</v>
       </c>
       <c r="N42" t="n">
-        <v>1364.992762987958</v>
+        <v>1680.270903941495</v>
       </c>
       <c r="O42" t="n">
-        <v>2011.035081210915</v>
+        <v>2326.313222164453</v>
       </c>
       <c r="P42" t="n">
         <v>2512.537930004306</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1546.202355139161</v>
+        <v>987.225036248128</v>
       </c>
       <c r="C43" t="n">
-        <v>1377.266172211254</v>
+        <v>818.2888533202212</v>
       </c>
       <c r="D43" t="n">
-        <v>1377.266172211254</v>
+        <v>668.1722139078854</v>
       </c>
       <c r="E43" t="n">
-        <v>1377.266172211254</v>
+        <v>520.2591203254923</v>
       </c>
       <c r="F43" t="n">
-        <v>1377.266172211254</v>
+        <v>373.3691728275819</v>
       </c>
       <c r="G43" t="n">
-        <v>1377.266172211254</v>
+        <v>205.1096464633511</v>
       </c>
       <c r="H43" t="n">
-        <v>1377.266172211254</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>1377.266172211254</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>1383.814063608861</v>
+        <v>60.49087321797107</v>
       </c>
       <c r="K43" t="n">
-        <v>1524.411097321473</v>
+        <v>201.0879069305836</v>
       </c>
       <c r="L43" t="n">
-        <v>1759.853329212077</v>
+        <v>436.5301388211877</v>
       </c>
       <c r="M43" t="n">
-        <v>2018.48327439841</v>
+        <v>695.1600840075209</v>
       </c>
       <c r="N43" t="n">
-        <v>2276.398193976417</v>
+        <v>953.0750035855272</v>
       </c>
       <c r="O43" t="n">
-        <v>2498.608071431616</v>
+        <v>1175.284881040727</v>
       </c>
       <c r="P43" t="n">
-        <v>2665.226327308214</v>
+        <v>1341.903136917324</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>1373.825900627333</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>1373.825900627333</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>1373.825900627333</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>1373.825900627333</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>1373.825900627333</v>
       </c>
       <c r="V43" t="n">
-        <v>2466.050120047908</v>
+        <v>1373.825900627333</v>
       </c>
       <c r="W43" t="n">
-        <v>2176.632950010948</v>
+        <v>1373.825900627333</v>
       </c>
       <c r="X43" t="n">
-        <v>1948.643399112931</v>
+        <v>1373.825900627333</v>
       </c>
       <c r="Y43" t="n">
-        <v>1727.850819969401</v>
+        <v>1168.873501078368</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1560.49834309456</v>
+        <v>1602.48111343776</v>
       </c>
       <c r="C44" t="n">
-        <v>1191.535826154148</v>
+        <v>1233.518596497348</v>
       </c>
       <c r="D44" t="n">
-        <v>1191.535826154148</v>
+        <v>875.252897890598</v>
       </c>
       <c r="E44" t="n">
-        <v>1191.535826154148</v>
+        <v>489.4646452923537</v>
       </c>
       <c r="F44" t="n">
-        <v>780.5499213645404</v>
+        <v>78.47874050274618</v>
       </c>
       <c r="G44" t="n">
-        <v>364.2364269308366</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7646,52 +7646,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>139.5861393588529</v>
+        <v>139.586139358853</v>
       </c>
       <c r="K44" t="n">
-        <v>318.681550056695</v>
+        <v>318.6815500566951</v>
       </c>
       <c r="L44" t="n">
-        <v>727.2320978096935</v>
+        <v>986.2259500837051</v>
       </c>
       <c r="M44" t="n">
-        <v>1394.776497836704</v>
+        <v>1366.327350834676</v>
       </c>
       <c r="N44" t="n">
-        <v>2062.320897863714</v>
+        <v>1696.070243036126</v>
       </c>
       <c r="O44" t="n">
-        <v>2360.352499314523</v>
+        <v>1994.101844486936</v>
       </c>
       <c r="P44" t="n">
-        <v>2580.214575089041</v>
+        <v>2532.544641351222</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.479157280403</v>
       </c>
       <c r="R44" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2558.578126044435</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2497.959645976704</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2244.329885708245</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>1913.266998364674</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W44" t="n">
-        <v>1560.49834309456</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X44" t="n">
-        <v>1560.49834309456</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y44" t="n">
-        <v>1560.49834309456</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>86.13361277892994</v>
+        <v>86.13361277892997</v>
       </c>
       <c r="K45" t="n">
-        <v>481.1279377027581</v>
+        <v>219.3073530603053</v>
       </c>
       <c r="L45" t="n">
-        <v>706.5190073265405</v>
+        <v>811.8303645345125</v>
       </c>
       <c r="M45" t="n">
-        <v>1374.063407353551</v>
+        <v>1479.374764561523</v>
       </c>
       <c r="N45" t="n">
-        <v>1754.91645907192</v>
+        <v>1783.634720129712</v>
       </c>
       <c r="O45" t="n">
-        <v>2011.035081210915</v>
+        <v>2326.313222164453</v>
       </c>
       <c r="P45" t="n">
         <v>2512.537930004306</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1491.333028087871</v>
+        <v>357.9549141070801</v>
       </c>
       <c r="C46" t="n">
-        <v>1491.333028087871</v>
+        <v>189.0187311791732</v>
       </c>
       <c r="D46" t="n">
-        <v>1491.333028087871</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>1491.333028087871</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>1491.333028087871</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>1491.333028087871</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>1491.333028087871</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>1377.266172211254</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>1383.814063608861</v>
+        <v>60.49087321797107</v>
       </c>
       <c r="K46" t="n">
-        <v>1524.411097321473</v>
+        <v>201.0879069305836</v>
       </c>
       <c r="L46" t="n">
-        <v>1759.853329212077</v>
+        <v>436.5301388211877</v>
       </c>
       <c r="M46" t="n">
-        <v>2018.48327439841</v>
+        <v>695.1600840075209</v>
       </c>
       <c r="N46" t="n">
-        <v>2276.398193976417</v>
+        <v>953.0750035855272</v>
       </c>
       <c r="O46" t="n">
-        <v>2498.608071431616</v>
+        <v>1175.284881040727</v>
       </c>
       <c r="P46" t="n">
-        <v>2665.226327308214</v>
+        <v>1341.903136917324</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>1373.825900627333</v>
       </c>
       <c r="R46" t="n">
-        <v>2582.287838786245</v>
+        <v>1258.964648395355</v>
       </c>
       <c r="S46" t="n">
-        <v>2506.216382930167</v>
+        <v>1057.577180317029</v>
       </c>
       <c r="T46" t="n">
-        <v>2506.216382930167</v>
+        <v>833.4319814564971</v>
       </c>
       <c r="U46" t="n">
-        <v>2217.083151160959</v>
+        <v>833.4319814564971</v>
       </c>
       <c r="V46" t="n">
-        <v>1962.398662955072</v>
+        <v>578.7474932506102</v>
       </c>
       <c r="W46" t="n">
-        <v>1672.981492918111</v>
+        <v>578.7474932506102</v>
       </c>
       <c r="X46" t="n">
-        <v>1672.981492918111</v>
+        <v>578.7474932506102</v>
       </c>
       <c r="Y46" t="n">
-        <v>1672.981492918111</v>
+        <v>357.9549141070801</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,7 +8459,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>91.93023064057729</v>
       </c>
       <c r="L11" t="n">
-        <v>412.5847924231097</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>106.5617878697843</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>17.56497165296329</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>78.45853632185415</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>284.6494630560837</v>
+        <v>366.9539843018392</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>40.95795203917059</v>
+        <v>40.95795203917058</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>412.5847924231097</v>
+        <v>412.5847924231096</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>213.4591370488556</v>
+        <v>58.41033964976396</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>130.2557989074985</v>
       </c>
       <c r="M15" t="n">
-        <v>337.0270397196057</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>40.95795203917059</v>
+        <v>40.95795203917058</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298301</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>104.3046895427187</v>
+        <v>95.58377668029703</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.95795203917059</v>
+        <v>40.95795203917058</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720749</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119851</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9486,13 +9486,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>176.1474340159885</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>104.3046895427187</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.95795203917059</v>
+        <v>40.95795203917058</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>176.1474340159885</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>104.3046895427186</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.95795203917059</v>
+        <v>40.95795203917058</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,13 +9960,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>176.1474340159885</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>104.3046895427187</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.95795203917059</v>
+        <v>40.95795203917058</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,16 +10194,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>176.1474340159888</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>104.3046895427184</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.95795203917059</v>
+        <v>40.95795203917058</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,16 +10431,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>189.7847446095426</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>104.3046895427184</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.95795203917059</v>
+        <v>40.95795203917058</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298301</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>445.4125206236934</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>104.3046895427184</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.95795203917059</v>
+        <v>40.95795203917058</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928335</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10908,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>176.1474340159885</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>104.3046895427187</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.95795203917059</v>
+        <v>40.95795203917058</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>58.41033964976421</v>
       </c>
       <c r="K41" t="n">
-        <v>9.31050113385794</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>412.5847924231097</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>373.2452510870714</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11142,25 +11142,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>337.0270397196058</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>288.5358240577034</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>366.9539843018392</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.95795203917059</v>
+        <v>40.95795203917058</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,25 +11300,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>150.9748406311788</v>
+        <v>412.5847924231096</v>
       </c>
       <c r="M44" t="n">
-        <v>351.103507964638</v>
+        <v>60.75704404944639</v>
       </c>
       <c r="N44" t="n">
-        <v>341.2136442682419</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>17.56497165296329</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>389.0573581956959</v>
       </c>
       <c r="N45" t="n">
-        <v>77.36676378806061</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>289.4544241371171</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.95795203917059</v>
+        <v>40.95795203917058</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.1503594893667</v>
+        <v>182.7212205826719</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>88.94383573197298</v>
+        <v>88.94383573197297</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>137.1852553240499</v>
       </c>
       <c r="T11" t="n">
-        <v>128.2506675025833</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.093462665775</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>62.46260983600733</v>
+        <v>166.5769311005885</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>29.26661844998065</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>113.7126397096579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>199.3735933975425</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.9037468719268</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2418994515161</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.1503594893667</v>
       </c>
       <c r="H14" t="n">
         <v>307.1905106593674</v>
       </c>
       <c r="I14" t="n">
-        <v>88.94383573197298</v>
+        <v>88.94383573197297</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>137.1852553240499</v>
       </c>
       <c r="T14" t="n">
-        <v>71.462196991144</v>
+        <v>140.3735776214858</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.093462665775</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5769311005885</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>149.6549979965568</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>221.9037468719268</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2418994515161</v>
+        <v>170.3801055087567</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.6079651164706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>145.2222635410325</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>88.94383573197298</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>24.86978451667495</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.2963147563306</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>12.72799838584308</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5769311005885</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.95669827617311</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>145.2222635410324</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>234.1660992730055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>88.94383573197297</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,10 +24142,10 @@
         <v>166.5769311005885</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>149.6549979965568</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>112.926187317851</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>53.20843147216436</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>243.4839536446823</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24221,10 +24221,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>145.2222635410325</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>88.94383573197298</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,10 +24254,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>137.1852553240499</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>96.98084394895653</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>89.12695424967242</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5769311005885</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>74.81450208706823</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>112.926187317851</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>113.7126397096579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>199.3735933975425</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.9037468719268</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2418994515161</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>96.98084394895659</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>88.94383573197297</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>137.1852553240499</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>145.2222635410322</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>113.7126397096579</v>
+        <v>53.20843147216395</v>
       </c>
       <c r="S28" t="n">
-        <v>199.3735933975425</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2418994515161</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>141.731238629529</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>88.94383573197297</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24728,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>137.1852553240499</v>
       </c>
       <c r="T29" t="n">
-        <v>209.2963147563306</v>
+        <v>8.037008216983651</v>
       </c>
       <c r="U29" t="n">
-        <v>24.86978451667517</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>80.36621688077055</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>80.21124444440488</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24932,10 +24932,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>145.2222635410325</v>
+        <v>234.1660992730064</v>
       </c>
       <c r="I32" t="n">
-        <v>88.94383573197298</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>23.34966206321778</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5769311005885</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>149.6549979965568</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.926187317851</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>286.2418994515161</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.6079651164706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25166,13 +25166,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>234.1660992730046</v>
       </c>
       <c r="H35" t="n">
-        <v>8.037008216983509</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>88.94383573197298</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>137.1852553240499</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5769311005885</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>149.6549979965568</v>
@@ -25360,22 +25360,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>199.3735933975425</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>62.3342057740212</v>
       </c>
       <c r="U37" t="n">
-        <v>53.20843147216382</v>
+        <v>286.2418994515161</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25406,10 +25406,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>145.2222635410317</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>88.94383573197297</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25439,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>137.1852553240499</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>96.98084394895653</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25603,19 +25603,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.88555950588</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>278.9180868612015</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25631,22 +25631,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>60.91117151489249</v>
+        <v>412.1503594893667</v>
       </c>
       <c r="H41" t="n">
-        <v>307.1905106593674</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>88.94383573197298</v>
+        <v>88.94383573197297</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25676,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>137.1852553240499</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.2963147563306</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.093462665775</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>217.8670325904274</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5769311005885</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>149.6549979965568</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>112.926187317851</v>
@@ -25843,16 +25843,16 @@
         <v>286.2418994515161</v>
       </c>
       <c r="V43" t="n">
-        <v>23.34966206321718</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>15.68177779861958</v>
       </c>
     </row>
     <row r="44">
@@ -25868,22 +25868,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>387.8599583938088</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.1905106593674</v>
       </c>
       <c r="I44" t="n">
-        <v>88.94383573197298</v>
+        <v>88.94383573197297</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>137.1852553240499</v>
       </c>
       <c r="T44" t="n">
-        <v>149.2840194892773</v>
+        <v>209.2963147563306</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.093462665775</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>14.89048115299175</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>149.6549979965568</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.926187317851</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26071,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>124.0628521000252</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.9037468719268</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2418994515161</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>709057.5066336822</v>
+        <v>709057.5066336823</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900251.2030949665</v>
+        <v>900251.2030949666</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900251.2030949664</v>
+        <v>900251.2030949666</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900251.2030949665</v>
+        <v>900251.2030949664</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>900251.2030949664</v>
+        <v>900251.2030949666</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900251.2030949666</v>
+        <v>900251.2030949665</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900251.2030949664</v>
+        <v>900251.2030949665</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900251.2030949665</v>
+        <v>900251.2030949666</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>709057.5066336823</v>
+        <v>709057.5066336822</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>709057.5066336822</v>
+        <v>709057.5066336824</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>382289.1326825966</v>
+        <v>382289.1326825967</v>
       </c>
       <c r="F2" t="n">
-        <v>382289.1326825966</v>
+        <v>382289.1326825968</v>
       </c>
       <c r="G2" t="n">
-        <v>475788.1906023964</v>
+        <v>475788.1906023966</v>
       </c>
       <c r="H2" t="n">
-        <v>475788.1906023964</v>
+        <v>475788.1906023965</v>
       </c>
       <c r="I2" t="n">
-        <v>475788.1906023965</v>
+        <v>475788.1906023963</v>
       </c>
       <c r="J2" t="n">
         <v>475788.1906023964</v>
       </c>
       <c r="K2" t="n">
-        <v>475788.1906023966</v>
+        <v>475788.1906023964</v>
       </c>
       <c r="L2" t="n">
-        <v>475788.1906023965</v>
+        <v>475788.1906023964</v>
       </c>
       <c r="M2" t="n">
         <v>475788.1906023966</v>
       </c>
       <c r="N2" t="n">
-        <v>475788.1906023964</v>
+        <v>475788.1906023966</v>
       </c>
       <c r="O2" t="n">
-        <v>382289.1326825968</v>
+        <v>382289.1326825966</v>
       </c>
       <c r="P2" t="n">
-        <v>382289.1326825966</v>
+        <v>382289.1326825967</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>326511.3102422896</v>
+        <v>326511.3102422897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194137.7109079702</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>194137.7109079703</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
-        <v>194137.7109079702</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>22227.33570573527</v>
+        <v>21466.58669398158</v>
       </c>
       <c r="F4" t="n">
-        <v>22227.33570573527</v>
+        <v>21466.58669398157</v>
       </c>
       <c r="G4" t="n">
-        <v>46183.58662336989</v>
+        <v>44590.9328216823</v>
       </c>
       <c r="H4" t="n">
-        <v>46183.58662336989</v>
+        <v>44590.93282168231</v>
       </c>
       <c r="I4" t="n">
-        <v>46183.58662336988</v>
+        <v>44590.9328216823</v>
       </c>
       <c r="J4" t="n">
-        <v>46183.58662336988</v>
+        <v>44590.9328216823</v>
       </c>
       <c r="K4" t="n">
-        <v>46183.58662336988</v>
+        <v>44590.9328216823</v>
       </c>
       <c r="L4" t="n">
-        <v>46183.58662336988</v>
+        <v>44590.9328216823</v>
       </c>
       <c r="M4" t="n">
-        <v>46183.58662336988</v>
+        <v>44590.9328216823</v>
       </c>
       <c r="N4" t="n">
-        <v>46183.58662336989</v>
+        <v>44590.93282168232</v>
       </c>
       <c r="O4" t="n">
-        <v>22227.33570573527</v>
+        <v>21466.58669398158</v>
       </c>
       <c r="P4" t="n">
-        <v>22227.33570573527</v>
+        <v>21466.58669398158</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>58091.2241227121</v>
       </c>
       <c r="G5" t="n">
-        <v>87535.2009721408</v>
+        <v>87535.20097214081</v>
       </c>
       <c r="H5" t="n">
         <v>87535.2009721408</v>
@@ -26491,19 +26491,19 @@
         <v>87535.2009721408</v>
       </c>
       <c r="J5" t="n">
-        <v>87535.2009721408</v>
+        <v>87535.20097214081</v>
       </c>
       <c r="K5" t="n">
         <v>87535.2009721408</v>
       </c>
       <c r="L5" t="n">
-        <v>87535.2009721408</v>
+        <v>87535.20097214081</v>
       </c>
       <c r="M5" t="n">
-        <v>87535.2009721408</v>
+        <v>87535.20097214081</v>
       </c>
       <c r="N5" t="n">
-        <v>87535.2009721408</v>
+        <v>87535.20097214081</v>
       </c>
       <c r="O5" t="n">
         <v>58091.2241227121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353813.5620207475</v>
+        <v>-351882.4475052068</v>
       </c>
       <c r="C6" t="n">
-        <v>236154.3171937969</v>
+        <v>238085.4317093377</v>
       </c>
       <c r="D6" t="n">
-        <v>236154.3171937968</v>
+        <v>238085.431709338</v>
       </c>
       <c r="E6" t="n">
-        <v>-24540.73738814036</v>
+        <v>-23779.9883763867</v>
       </c>
       <c r="F6" t="n">
-        <v>301970.5728541492</v>
+        <v>302731.3218659032</v>
       </c>
       <c r="G6" t="n">
-        <v>209336.6333559702</v>
+        <v>210929.2871576579</v>
       </c>
       <c r="H6" t="n">
-        <v>342069.4030068858</v>
+        <v>343662.0568085734</v>
       </c>
       <c r="I6" t="n">
-        <v>342069.4030068858</v>
+        <v>343662.0568085732</v>
       </c>
       <c r="J6" t="n">
-        <v>165646.1838142928</v>
+        <v>167238.8376159804</v>
       </c>
       <c r="K6" t="n">
-        <v>342069.4030068859</v>
+        <v>343662.0568085733</v>
       </c>
       <c r="L6" t="n">
-        <v>342069.4030068858</v>
+        <v>343662.0568085733</v>
       </c>
       <c r="M6" t="n">
-        <v>342069.4030068859</v>
+        <v>343662.0568085734</v>
       </c>
       <c r="N6" t="n">
-        <v>342069.4030068857</v>
+        <v>343662.0568085734</v>
       </c>
       <c r="O6" t="n">
-        <v>301970.5728541494</v>
+        <v>302731.3218659029</v>
       </c>
       <c r="P6" t="n">
-        <v>301970.5728541493</v>
+        <v>302731.321865903</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>784.154033909868</v>
+        <v>784.1540339098681</v>
       </c>
       <c r="F3" t="n">
-        <v>784.154033909868</v>
+        <v>784.1540339098681</v>
       </c>
       <c r="G3" t="n">
-        <v>784.154033909868</v>
+        <v>784.1540339098681</v>
       </c>
       <c r="H3" t="n">
-        <v>784.154033909868</v>
+        <v>784.1540339098681</v>
       </c>
       <c r="I3" t="n">
-        <v>784.154033909868</v>
+        <v>784.1540339098681</v>
       </c>
       <c r="J3" t="n">
-        <v>784.154033909868</v>
+        <v>784.1540339098681</v>
       </c>
       <c r="K3" t="n">
-        <v>784.154033909868</v>
+        <v>784.1540339098681</v>
       </c>
       <c r="L3" t="n">
-        <v>784.154033909868</v>
+        <v>784.1540339098681</v>
       </c>
       <c r="M3" t="n">
-        <v>784.154033909868</v>
+        <v>784.1540339098681</v>
       </c>
       <c r="N3" t="n">
-        <v>784.154033909868</v>
+        <v>784.1540339098681</v>
       </c>
       <c r="O3" t="n">
-        <v>784.154033909868</v>
+        <v>784.1540339098681</v>
       </c>
       <c r="P3" t="n">
-        <v>784.154033909868</v>
+        <v>784.1540339098681</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>406.4103696927813</v>
+        <v>406.4103696927815</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>484.2759350234984</v>
+        <v>484.2759350234986</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>484.2759350234984</v>
+        <v>484.2759350234986</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>209.522698905341</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>96.53325266007676</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>134.4203695339866</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>291.5750132227403</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,22 +27667,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>102.6691795601711</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>126.3486313399688</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>51.67144525558933</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>264.6471322822021</v>
+        <v>270.3530674958753</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>141.9382209484755</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>35.73798850654779</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.152378025768311</v>
+        <v>3.152378025768312</v>
       </c>
       <c r="H11" t="n">
-        <v>32.28429145639972</v>
+        <v>32.28429145639973</v>
       </c>
       <c r="I11" t="n">
         <v>121.5320538384329</v>
       </c>
       <c r="J11" t="n">
-        <v>267.5541444645534</v>
+        <v>267.5541444645535</v>
       </c>
       <c r="K11" t="n">
-        <v>400.9943062953261</v>
+        <v>400.9943062953262</v>
       </c>
       <c r="L11" t="n">
         <v>497.4688953014332</v>
       </c>
       <c r="M11" t="n">
-        <v>553.5299980171903</v>
+        <v>553.5299980171905</v>
       </c>
       <c r="N11" t="n">
-        <v>562.4866920829046</v>
+        <v>562.4866920829047</v>
       </c>
       <c r="O11" t="n">
-        <v>531.1402330891709</v>
+        <v>531.140233089171</v>
       </c>
       <c r="P11" t="n">
-        <v>453.3159005780157</v>
+        <v>453.3159005780158</v>
       </c>
       <c r="Q11" t="n">
-        <v>340.4213625301879</v>
+        <v>340.421362530188</v>
       </c>
       <c r="R11" t="n">
-        <v>198.0205661611688</v>
+        <v>198.0205661611689</v>
       </c>
       <c r="S11" t="n">
         <v>71.83481426219547</v>
@@ -31832,19 +31832,19 @@
         <v>1.686670940862735</v>
       </c>
       <c r="H12" t="n">
-        <v>16.28969040254273</v>
+        <v>16.28969040254274</v>
       </c>
       <c r="I12" t="n">
-        <v>58.07178458672136</v>
+        <v>58.07178458672137</v>
       </c>
       <c r="J12" t="n">
-        <v>159.3534155137025</v>
+        <v>159.3534155137026</v>
       </c>
       <c r="K12" t="n">
         <v>272.3603685515058</v>
       </c>
       <c r="L12" t="n">
-        <v>366.2221268746039</v>
+        <v>366.222126874604</v>
       </c>
       <c r="M12" t="n">
         <v>427.363948480878</v>
@@ -31856,7 +31856,7 @@
         <v>401.3019233727227</v>
       </c>
       <c r="P12" t="n">
-        <v>322.0801729091305</v>
+        <v>322.0801729091306</v>
       </c>
       <c r="Q12" t="n">
         <v>215.3020660652151</v>
@@ -31865,10 +31865,10 @@
         <v>104.7215519247934</v>
       </c>
       <c r="S12" t="n">
-        <v>31.32917295856876</v>
+        <v>31.32917295856877</v>
       </c>
       <c r="T12" t="n">
-        <v>6.798467520407249</v>
+        <v>6.79846752040725</v>
       </c>
       <c r="U12" t="n">
         <v>0.1109651934778116</v>
@@ -31914,10 +31914,10 @@
         <v>12.57217451088281</v>
       </c>
       <c r="I13" t="n">
-        <v>42.52428760940727</v>
+        <v>42.52428760940728</v>
       </c>
       <c r="J13" t="n">
-        <v>99.97321183142692</v>
+        <v>99.97321183142694</v>
       </c>
       <c r="K13" t="n">
         <v>164.2866975961985</v>
@@ -31926,10 +31926,10 @@
         <v>210.2304109928194</v>
       </c>
       <c r="M13" t="n">
-        <v>221.6584919132434</v>
+        <v>221.6584919132435</v>
       </c>
       <c r="N13" t="n">
-        <v>216.3879484066363</v>
+        <v>216.3879484066364</v>
       </c>
       <c r="O13" t="n">
         <v>199.8692937578792</v>
@@ -31941,16 +31941,16 @@
         <v>118.4072591203901</v>
       </c>
       <c r="R13" t="n">
-        <v>63.58075166751156</v>
+        <v>63.58075166751158</v>
       </c>
       <c r="S13" t="n">
-        <v>24.64300463942977</v>
+        <v>24.64300463942978</v>
       </c>
       <c r="T13" t="n">
-        <v>6.041842556354718</v>
+        <v>6.041842556354719</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07712990497474119</v>
+        <v>0.0771299049747412</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.152378025768311</v>
+        <v>3.152378025768312</v>
       </c>
       <c r="H14" t="n">
-        <v>32.28429145639972</v>
+        <v>32.28429145639973</v>
       </c>
       <c r="I14" t="n">
         <v>121.5320538384329</v>
       </c>
       <c r="J14" t="n">
-        <v>267.5541444645534</v>
+        <v>267.5541444645535</v>
       </c>
       <c r="K14" t="n">
-        <v>400.9943062953261</v>
+        <v>400.9943062953262</v>
       </c>
       <c r="L14" t="n">
         <v>497.4688953014332</v>
       </c>
       <c r="M14" t="n">
-        <v>553.5299980171903</v>
+        <v>553.5299980171905</v>
       </c>
       <c r="N14" t="n">
-        <v>562.4866920829046</v>
+        <v>562.4866920829047</v>
       </c>
       <c r="O14" t="n">
-        <v>531.1402330891709</v>
+        <v>531.140233089171</v>
       </c>
       <c r="P14" t="n">
-        <v>453.3159005780157</v>
+        <v>453.3159005780158</v>
       </c>
       <c r="Q14" t="n">
-        <v>340.4213625301879</v>
+        <v>340.421362530188</v>
       </c>
       <c r="R14" t="n">
-        <v>198.0205661611688</v>
+        <v>198.0205661611689</v>
       </c>
       <c r="S14" t="n">
         <v>71.83481426219547</v>
@@ -32069,19 +32069,19 @@
         <v>1.686670940862735</v>
       </c>
       <c r="H15" t="n">
-        <v>16.28969040254273</v>
+        <v>16.28969040254274</v>
       </c>
       <c r="I15" t="n">
-        <v>58.07178458672136</v>
+        <v>58.07178458672137</v>
       </c>
       <c r="J15" t="n">
-        <v>159.3534155137025</v>
+        <v>159.3534155137026</v>
       </c>
       <c r="K15" t="n">
         <v>272.3603685515058</v>
       </c>
       <c r="L15" t="n">
-        <v>366.2221268746039</v>
+        <v>366.222126874604</v>
       </c>
       <c r="M15" t="n">
         <v>427.363948480878</v>
@@ -32093,7 +32093,7 @@
         <v>401.3019233727227</v>
       </c>
       <c r="P15" t="n">
-        <v>322.0801729091305</v>
+        <v>322.0801729091306</v>
       </c>
       <c r="Q15" t="n">
         <v>215.3020660652151</v>
@@ -32102,10 +32102,10 @@
         <v>104.7215519247934</v>
       </c>
       <c r="S15" t="n">
-        <v>31.32917295856876</v>
+        <v>31.32917295856877</v>
       </c>
       <c r="T15" t="n">
-        <v>6.798467520407249</v>
+        <v>6.79846752040725</v>
       </c>
       <c r="U15" t="n">
         <v>0.1109651934778116</v>
@@ -32151,10 +32151,10 @@
         <v>12.57217451088281</v>
       </c>
       <c r="I16" t="n">
-        <v>42.52428760940727</v>
+        <v>42.52428760940728</v>
       </c>
       <c r="J16" t="n">
-        <v>99.97321183142692</v>
+        <v>99.97321183142694</v>
       </c>
       <c r="K16" t="n">
         <v>164.2866975961985</v>
@@ -32163,10 +32163,10 @@
         <v>210.2304109928194</v>
       </c>
       <c r="M16" t="n">
-        <v>221.6584919132434</v>
+        <v>221.6584919132435</v>
       </c>
       <c r="N16" t="n">
-        <v>216.3879484066363</v>
+        <v>216.3879484066364</v>
       </c>
       <c r="O16" t="n">
         <v>199.8692937578792</v>
@@ -32178,16 +32178,16 @@
         <v>118.4072591203901</v>
       </c>
       <c r="R16" t="n">
-        <v>63.58075166751156</v>
+        <v>63.58075166751158</v>
       </c>
       <c r="S16" t="n">
-        <v>24.64300463942977</v>
+        <v>24.64300463942978</v>
       </c>
       <c r="T16" t="n">
-        <v>6.041842556354718</v>
+        <v>6.041842556354719</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07712990497474119</v>
+        <v>0.0771299049747412</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.152378025768311</v>
+        <v>3.152378025768312</v>
       </c>
       <c r="H17" t="n">
-        <v>32.28429145639972</v>
+        <v>32.28429145639973</v>
       </c>
       <c r="I17" t="n">
         <v>121.5320538384329</v>
       </c>
       <c r="J17" t="n">
-        <v>267.5541444645534</v>
+        <v>267.5541444645535</v>
       </c>
       <c r="K17" t="n">
-        <v>400.9943062953261</v>
+        <v>400.9943062953262</v>
       </c>
       <c r="L17" t="n">
         <v>497.4688953014332</v>
       </c>
       <c r="M17" t="n">
-        <v>553.5299980171903</v>
+        <v>553.5299980171905</v>
       </c>
       <c r="N17" t="n">
-        <v>562.4866920829046</v>
+        <v>562.4866920829047</v>
       </c>
       <c r="O17" t="n">
-        <v>531.1402330891709</v>
+        <v>531.140233089171</v>
       </c>
       <c r="P17" t="n">
-        <v>453.3159005780157</v>
+        <v>453.3159005780158</v>
       </c>
       <c r="Q17" t="n">
-        <v>340.4213625301879</v>
+        <v>340.421362530188</v>
       </c>
       <c r="R17" t="n">
-        <v>198.0205661611688</v>
+        <v>198.0205661611689</v>
       </c>
       <c r="S17" t="n">
         <v>71.83481426219547</v>
@@ -32306,19 +32306,19 @@
         <v>1.686670940862735</v>
       </c>
       <c r="H18" t="n">
-        <v>16.28969040254273</v>
+        <v>16.28969040254274</v>
       </c>
       <c r="I18" t="n">
-        <v>58.07178458672136</v>
+        <v>58.07178458672137</v>
       </c>
       <c r="J18" t="n">
-        <v>159.3534155137025</v>
+        <v>159.3534155137026</v>
       </c>
       <c r="K18" t="n">
         <v>272.3603685515058</v>
       </c>
       <c r="L18" t="n">
-        <v>366.2221268746039</v>
+        <v>366.222126874604</v>
       </c>
       <c r="M18" t="n">
         <v>427.363948480878</v>
@@ -32330,7 +32330,7 @@
         <v>401.3019233727227</v>
       </c>
       <c r="P18" t="n">
-        <v>322.0801729091305</v>
+        <v>322.0801729091306</v>
       </c>
       <c r="Q18" t="n">
         <v>215.3020660652151</v>
@@ -32339,10 +32339,10 @@
         <v>104.7215519247934</v>
       </c>
       <c r="S18" t="n">
-        <v>31.32917295856876</v>
+        <v>31.32917295856877</v>
       </c>
       <c r="T18" t="n">
-        <v>6.798467520407249</v>
+        <v>6.79846752040725</v>
       </c>
       <c r="U18" t="n">
         <v>0.1109651934778116</v>
@@ -32388,10 +32388,10 @@
         <v>12.57217451088281</v>
       </c>
       <c r="I19" t="n">
-        <v>42.52428760940727</v>
+        <v>42.52428760940728</v>
       </c>
       <c r="J19" t="n">
-        <v>99.97321183142692</v>
+        <v>99.97321183142694</v>
       </c>
       <c r="K19" t="n">
         <v>164.2866975961985</v>
@@ -32400,10 +32400,10 @@
         <v>210.2304109928194</v>
       </c>
       <c r="M19" t="n">
-        <v>221.6584919132434</v>
+        <v>221.6584919132435</v>
       </c>
       <c r="N19" t="n">
-        <v>216.3879484066363</v>
+        <v>216.3879484066364</v>
       </c>
       <c r="O19" t="n">
         <v>199.8692937578792</v>
@@ -32415,16 +32415,16 @@
         <v>118.4072591203901</v>
       </c>
       <c r="R19" t="n">
-        <v>63.58075166751156</v>
+        <v>63.58075166751158</v>
       </c>
       <c r="S19" t="n">
-        <v>24.64300463942977</v>
+        <v>24.64300463942978</v>
       </c>
       <c r="T19" t="n">
-        <v>6.041842556354718</v>
+        <v>6.041842556354719</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07712990497474119</v>
+        <v>0.0771299049747412</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.152378025768311</v>
+        <v>3.152378025768312</v>
       </c>
       <c r="H20" t="n">
-        <v>32.28429145639972</v>
+        <v>32.28429145639973</v>
       </c>
       <c r="I20" t="n">
         <v>121.5320538384329</v>
       </c>
       <c r="J20" t="n">
-        <v>267.5541444645534</v>
+        <v>267.5541444645535</v>
       </c>
       <c r="K20" t="n">
-        <v>400.9943062953261</v>
+        <v>400.9943062953262</v>
       </c>
       <c r="L20" t="n">
         <v>497.4688953014332</v>
       </c>
       <c r="M20" t="n">
-        <v>553.5299980171903</v>
+        <v>553.5299980171905</v>
       </c>
       <c r="N20" t="n">
-        <v>562.4866920829046</v>
+        <v>562.4866920829047</v>
       </c>
       <c r="O20" t="n">
-        <v>531.1402330891709</v>
+        <v>531.140233089171</v>
       </c>
       <c r="P20" t="n">
-        <v>453.3159005780157</v>
+        <v>453.3159005780158</v>
       </c>
       <c r="Q20" t="n">
-        <v>340.4213625301879</v>
+        <v>340.421362530188</v>
       </c>
       <c r="R20" t="n">
-        <v>198.0205661611688</v>
+        <v>198.0205661611689</v>
       </c>
       <c r="S20" t="n">
         <v>71.83481426219547</v>
@@ -32543,19 +32543,19 @@
         <v>1.686670940862735</v>
       </c>
       <c r="H21" t="n">
-        <v>16.28969040254273</v>
+        <v>16.28969040254274</v>
       </c>
       <c r="I21" t="n">
-        <v>58.07178458672136</v>
+        <v>58.07178458672137</v>
       </c>
       <c r="J21" t="n">
-        <v>159.3534155137025</v>
+        <v>159.3534155137026</v>
       </c>
       <c r="K21" t="n">
         <v>272.3603685515058</v>
       </c>
       <c r="L21" t="n">
-        <v>366.2221268746039</v>
+        <v>366.222126874604</v>
       </c>
       <c r="M21" t="n">
         <v>427.363948480878</v>
@@ -32567,7 +32567,7 @@
         <v>401.3019233727227</v>
       </c>
       <c r="P21" t="n">
-        <v>322.0801729091305</v>
+        <v>322.0801729091306</v>
       </c>
       <c r="Q21" t="n">
         <v>215.3020660652151</v>
@@ -32576,10 +32576,10 @@
         <v>104.7215519247934</v>
       </c>
       <c r="S21" t="n">
-        <v>31.32917295856876</v>
+        <v>31.32917295856877</v>
       </c>
       <c r="T21" t="n">
-        <v>6.798467520407249</v>
+        <v>6.79846752040725</v>
       </c>
       <c r="U21" t="n">
         <v>0.1109651934778116</v>
@@ -32625,10 +32625,10 @@
         <v>12.57217451088281</v>
       </c>
       <c r="I22" t="n">
-        <v>42.52428760940727</v>
+        <v>42.52428760940728</v>
       </c>
       <c r="J22" t="n">
-        <v>99.97321183142692</v>
+        <v>99.97321183142694</v>
       </c>
       <c r="K22" t="n">
         <v>164.2866975961985</v>
@@ -32637,10 +32637,10 @@
         <v>210.2304109928194</v>
       </c>
       <c r="M22" t="n">
-        <v>221.6584919132434</v>
+        <v>221.6584919132435</v>
       </c>
       <c r="N22" t="n">
-        <v>216.3879484066363</v>
+        <v>216.3879484066364</v>
       </c>
       <c r="O22" t="n">
         <v>199.8692937578792</v>
@@ -32652,16 +32652,16 @@
         <v>118.4072591203901</v>
       </c>
       <c r="R22" t="n">
-        <v>63.58075166751156</v>
+        <v>63.58075166751158</v>
       </c>
       <c r="S22" t="n">
-        <v>24.64300463942977</v>
+        <v>24.64300463942978</v>
       </c>
       <c r="T22" t="n">
-        <v>6.041842556354718</v>
+        <v>6.041842556354719</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07712990497474119</v>
+        <v>0.0771299049747412</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.152378025768311</v>
+        <v>3.152378025768312</v>
       </c>
       <c r="H23" t="n">
-        <v>32.28429145639972</v>
+        <v>32.28429145639973</v>
       </c>
       <c r="I23" t="n">
         <v>121.5320538384329</v>
       </c>
       <c r="J23" t="n">
-        <v>267.5541444645534</v>
+        <v>267.5541444645535</v>
       </c>
       <c r="K23" t="n">
-        <v>400.9943062953261</v>
+        <v>400.9943062953262</v>
       </c>
       <c r="L23" t="n">
         <v>497.4688953014332</v>
       </c>
       <c r="M23" t="n">
-        <v>553.5299980171903</v>
+        <v>553.5299980171905</v>
       </c>
       <c r="N23" t="n">
-        <v>562.4866920829046</v>
+        <v>562.4866920829047</v>
       </c>
       <c r="O23" t="n">
-        <v>531.1402330891709</v>
+        <v>531.140233089171</v>
       </c>
       <c r="P23" t="n">
-        <v>453.3159005780157</v>
+        <v>453.3159005780158</v>
       </c>
       <c r="Q23" t="n">
-        <v>340.4213625301879</v>
+        <v>340.421362530188</v>
       </c>
       <c r="R23" t="n">
-        <v>198.0205661611688</v>
+        <v>198.0205661611689</v>
       </c>
       <c r="S23" t="n">
         <v>71.83481426219547</v>
@@ -32780,19 +32780,19 @@
         <v>1.686670940862735</v>
       </c>
       <c r="H24" t="n">
-        <v>16.28969040254273</v>
+        <v>16.28969040254274</v>
       </c>
       <c r="I24" t="n">
-        <v>58.07178458672136</v>
+        <v>58.07178458672137</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3534155137025</v>
+        <v>159.3534155137026</v>
       </c>
       <c r="K24" t="n">
         <v>272.3603685515058</v>
       </c>
       <c r="L24" t="n">
-        <v>366.2221268746039</v>
+        <v>366.222126874604</v>
       </c>
       <c r="M24" t="n">
         <v>427.363948480878</v>
@@ -32804,7 +32804,7 @@
         <v>401.3019233727227</v>
       </c>
       <c r="P24" t="n">
-        <v>322.0801729091305</v>
+        <v>322.0801729091306</v>
       </c>
       <c r="Q24" t="n">
         <v>215.3020660652151</v>
@@ -32813,10 +32813,10 @@
         <v>104.7215519247934</v>
       </c>
       <c r="S24" t="n">
-        <v>31.32917295856876</v>
+        <v>31.32917295856877</v>
       </c>
       <c r="T24" t="n">
-        <v>6.798467520407249</v>
+        <v>6.79846752040725</v>
       </c>
       <c r="U24" t="n">
         <v>0.1109651934778116</v>
@@ -32862,10 +32862,10 @@
         <v>12.57217451088281</v>
       </c>
       <c r="I25" t="n">
-        <v>42.52428760940727</v>
+        <v>42.52428760940728</v>
       </c>
       <c r="J25" t="n">
-        <v>99.97321183142692</v>
+        <v>99.97321183142694</v>
       </c>
       <c r="K25" t="n">
         <v>164.2866975961985</v>
@@ -32874,10 +32874,10 @@
         <v>210.2304109928194</v>
       </c>
       <c r="M25" t="n">
-        <v>221.6584919132434</v>
+        <v>221.6584919132435</v>
       </c>
       <c r="N25" t="n">
-        <v>216.3879484066363</v>
+        <v>216.3879484066364</v>
       </c>
       <c r="O25" t="n">
         <v>199.8692937578792</v>
@@ -32889,16 +32889,16 @@
         <v>118.4072591203901</v>
       </c>
       <c r="R25" t="n">
-        <v>63.58075166751156</v>
+        <v>63.58075166751158</v>
       </c>
       <c r="S25" t="n">
-        <v>24.64300463942977</v>
+        <v>24.64300463942978</v>
       </c>
       <c r="T25" t="n">
-        <v>6.041842556354718</v>
+        <v>6.041842556354719</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07712990497474119</v>
+        <v>0.0771299049747412</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.152378025768311</v>
+        <v>3.152378025768312</v>
       </c>
       <c r="H26" t="n">
-        <v>32.28429145639972</v>
+        <v>32.28429145639973</v>
       </c>
       <c r="I26" t="n">
         <v>121.5320538384329</v>
       </c>
       <c r="J26" t="n">
-        <v>267.5541444645534</v>
+        <v>267.5541444645535</v>
       </c>
       <c r="K26" t="n">
-        <v>400.9943062953261</v>
+        <v>400.9943062953262</v>
       </c>
       <c r="L26" t="n">
         <v>497.4688953014332</v>
       </c>
       <c r="M26" t="n">
-        <v>553.5299980171903</v>
+        <v>553.5299980171905</v>
       </c>
       <c r="N26" t="n">
-        <v>562.4866920829046</v>
+        <v>562.4866920829047</v>
       </c>
       <c r="O26" t="n">
-        <v>531.1402330891709</v>
+        <v>531.140233089171</v>
       </c>
       <c r="P26" t="n">
-        <v>453.3159005780157</v>
+        <v>453.3159005780158</v>
       </c>
       <c r="Q26" t="n">
-        <v>340.4213625301879</v>
+        <v>340.421362530188</v>
       </c>
       <c r="R26" t="n">
-        <v>198.0205661611688</v>
+        <v>198.0205661611689</v>
       </c>
       <c r="S26" t="n">
         <v>71.83481426219547</v>
@@ -33017,19 +33017,19 @@
         <v>1.686670940862735</v>
       </c>
       <c r="H27" t="n">
-        <v>16.28969040254273</v>
+        <v>16.28969040254274</v>
       </c>
       <c r="I27" t="n">
-        <v>58.07178458672136</v>
+        <v>58.07178458672137</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3534155137025</v>
+        <v>159.3534155137026</v>
       </c>
       <c r="K27" t="n">
         <v>272.3603685515058</v>
       </c>
       <c r="L27" t="n">
-        <v>366.2221268746039</v>
+        <v>366.222126874604</v>
       </c>
       <c r="M27" t="n">
         <v>427.363948480878</v>
@@ -33041,7 +33041,7 @@
         <v>401.3019233727227</v>
       </c>
       <c r="P27" t="n">
-        <v>322.0801729091305</v>
+        <v>322.0801729091306</v>
       </c>
       <c r="Q27" t="n">
         <v>215.3020660652151</v>
@@ -33050,10 +33050,10 @@
         <v>104.7215519247934</v>
       </c>
       <c r="S27" t="n">
-        <v>31.32917295856876</v>
+        <v>31.32917295856877</v>
       </c>
       <c r="T27" t="n">
-        <v>6.798467520407249</v>
+        <v>6.79846752040725</v>
       </c>
       <c r="U27" t="n">
         <v>0.1109651934778116</v>
@@ -33099,10 +33099,10 @@
         <v>12.57217451088281</v>
       </c>
       <c r="I28" t="n">
-        <v>42.52428760940727</v>
+        <v>42.52428760940728</v>
       </c>
       <c r="J28" t="n">
-        <v>99.97321183142692</v>
+        <v>99.97321183142694</v>
       </c>
       <c r="K28" t="n">
         <v>164.2866975961985</v>
@@ -33111,10 +33111,10 @@
         <v>210.2304109928194</v>
       </c>
       <c r="M28" t="n">
-        <v>221.6584919132434</v>
+        <v>221.6584919132435</v>
       </c>
       <c r="N28" t="n">
-        <v>216.3879484066363</v>
+        <v>216.3879484066364</v>
       </c>
       <c r="O28" t="n">
         <v>199.8692937578792</v>
@@ -33126,16 +33126,16 @@
         <v>118.4072591203901</v>
       </c>
       <c r="R28" t="n">
-        <v>63.58075166751156</v>
+        <v>63.58075166751158</v>
       </c>
       <c r="S28" t="n">
-        <v>24.64300463942977</v>
+        <v>24.64300463942978</v>
       </c>
       <c r="T28" t="n">
-        <v>6.041842556354718</v>
+        <v>6.041842556354719</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07712990497474119</v>
+        <v>0.0771299049747412</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.152378025768311</v>
+        <v>3.152378025768312</v>
       </c>
       <c r="H29" t="n">
-        <v>32.28429145639972</v>
+        <v>32.28429145639973</v>
       </c>
       <c r="I29" t="n">
         <v>121.5320538384329</v>
       </c>
       <c r="J29" t="n">
-        <v>267.5541444645534</v>
+        <v>267.5541444645535</v>
       </c>
       <c r="K29" t="n">
-        <v>400.9943062953261</v>
+        <v>400.9943062953262</v>
       </c>
       <c r="L29" t="n">
         <v>497.4688953014332</v>
       </c>
       <c r="M29" t="n">
-        <v>553.5299980171903</v>
+        <v>553.5299980171905</v>
       </c>
       <c r="N29" t="n">
-        <v>562.4866920829046</v>
+        <v>562.4866920829047</v>
       </c>
       <c r="O29" t="n">
-        <v>531.1402330891709</v>
+        <v>531.140233089171</v>
       </c>
       <c r="P29" t="n">
-        <v>453.3159005780157</v>
+        <v>453.3159005780158</v>
       </c>
       <c r="Q29" t="n">
-        <v>340.4213625301879</v>
+        <v>340.421362530188</v>
       </c>
       <c r="R29" t="n">
-        <v>198.0205661611688</v>
+        <v>198.0205661611689</v>
       </c>
       <c r="S29" t="n">
         <v>71.83481426219547</v>
@@ -33254,19 +33254,19 @@
         <v>1.686670940862735</v>
       </c>
       <c r="H30" t="n">
-        <v>16.28969040254273</v>
+        <v>16.28969040254274</v>
       </c>
       <c r="I30" t="n">
-        <v>58.07178458672136</v>
+        <v>58.07178458672137</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3534155137025</v>
+        <v>159.3534155137026</v>
       </c>
       <c r="K30" t="n">
         <v>272.3603685515058</v>
       </c>
       <c r="L30" t="n">
-        <v>366.2221268746039</v>
+        <v>366.222126874604</v>
       </c>
       <c r="M30" t="n">
         <v>427.363948480878</v>
@@ -33278,7 +33278,7 @@
         <v>401.3019233727227</v>
       </c>
       <c r="P30" t="n">
-        <v>322.0801729091305</v>
+        <v>322.0801729091306</v>
       </c>
       <c r="Q30" t="n">
         <v>215.3020660652151</v>
@@ -33287,10 +33287,10 @@
         <v>104.7215519247934</v>
       </c>
       <c r="S30" t="n">
-        <v>31.32917295856876</v>
+        <v>31.32917295856877</v>
       </c>
       <c r="T30" t="n">
-        <v>6.798467520407249</v>
+        <v>6.79846752040725</v>
       </c>
       <c r="U30" t="n">
         <v>0.1109651934778116</v>
@@ -33336,10 +33336,10 @@
         <v>12.57217451088281</v>
       </c>
       <c r="I31" t="n">
-        <v>42.52428760940727</v>
+        <v>42.52428760940728</v>
       </c>
       <c r="J31" t="n">
-        <v>99.97321183142692</v>
+        <v>99.97321183142694</v>
       </c>
       <c r="K31" t="n">
         <v>164.2866975961985</v>
@@ -33348,10 +33348,10 @@
         <v>210.2304109928194</v>
       </c>
       <c r="M31" t="n">
-        <v>221.6584919132434</v>
+        <v>221.6584919132435</v>
       </c>
       <c r="N31" t="n">
-        <v>216.3879484066363</v>
+        <v>216.3879484066364</v>
       </c>
       <c r="O31" t="n">
         <v>199.8692937578792</v>
@@ -33363,16 +33363,16 @@
         <v>118.4072591203901</v>
       </c>
       <c r="R31" t="n">
-        <v>63.58075166751156</v>
+        <v>63.58075166751158</v>
       </c>
       <c r="S31" t="n">
-        <v>24.64300463942977</v>
+        <v>24.64300463942978</v>
       </c>
       <c r="T31" t="n">
-        <v>6.041842556354718</v>
+        <v>6.041842556354719</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07712990497474119</v>
+        <v>0.0771299049747412</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.152378025768311</v>
+        <v>3.152378025768312</v>
       </c>
       <c r="H32" t="n">
-        <v>32.28429145639972</v>
+        <v>32.28429145639973</v>
       </c>
       <c r="I32" t="n">
         <v>121.5320538384329</v>
       </c>
       <c r="J32" t="n">
-        <v>267.5541444645534</v>
+        <v>267.5541444645535</v>
       </c>
       <c r="K32" t="n">
-        <v>400.9943062953261</v>
+        <v>400.9943062953262</v>
       </c>
       <c r="L32" t="n">
         <v>497.4688953014332</v>
       </c>
       <c r="M32" t="n">
-        <v>553.5299980171903</v>
+        <v>553.5299980171905</v>
       </c>
       <c r="N32" t="n">
-        <v>562.4866920829046</v>
+        <v>562.4866920829047</v>
       </c>
       <c r="O32" t="n">
-        <v>531.1402330891709</v>
+        <v>531.140233089171</v>
       </c>
       <c r="P32" t="n">
-        <v>453.3159005780157</v>
+        <v>453.3159005780158</v>
       </c>
       <c r="Q32" t="n">
-        <v>340.4213625301879</v>
+        <v>340.421362530188</v>
       </c>
       <c r="R32" t="n">
-        <v>198.0205661611688</v>
+        <v>198.0205661611689</v>
       </c>
       <c r="S32" t="n">
         <v>71.83481426219547</v>
@@ -33491,19 +33491,19 @@
         <v>1.686670940862735</v>
       </c>
       <c r="H33" t="n">
-        <v>16.28969040254273</v>
+        <v>16.28969040254274</v>
       </c>
       <c r="I33" t="n">
-        <v>58.07178458672136</v>
+        <v>58.07178458672137</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3534155137025</v>
+        <v>159.3534155137026</v>
       </c>
       <c r="K33" t="n">
         <v>272.3603685515058</v>
       </c>
       <c r="L33" t="n">
-        <v>366.2221268746039</v>
+        <v>366.222126874604</v>
       </c>
       <c r="M33" t="n">
         <v>427.363948480878</v>
@@ -33515,7 +33515,7 @@
         <v>401.3019233727227</v>
       </c>
       <c r="P33" t="n">
-        <v>322.0801729091305</v>
+        <v>322.0801729091306</v>
       </c>
       <c r="Q33" t="n">
         <v>215.3020660652151</v>
@@ -33524,10 +33524,10 @@
         <v>104.7215519247934</v>
       </c>
       <c r="S33" t="n">
-        <v>31.32917295856876</v>
+        <v>31.32917295856877</v>
       </c>
       <c r="T33" t="n">
-        <v>6.798467520407249</v>
+        <v>6.79846752040725</v>
       </c>
       <c r="U33" t="n">
         <v>0.1109651934778116</v>
@@ -33573,10 +33573,10 @@
         <v>12.57217451088281</v>
       </c>
       <c r="I34" t="n">
-        <v>42.52428760940727</v>
+        <v>42.52428760940728</v>
       </c>
       <c r="J34" t="n">
-        <v>99.97321183142692</v>
+        <v>99.97321183142694</v>
       </c>
       <c r="K34" t="n">
         <v>164.2866975961985</v>
@@ -33585,10 +33585,10 @@
         <v>210.2304109928194</v>
       </c>
       <c r="M34" t="n">
-        <v>221.6584919132434</v>
+        <v>221.6584919132435</v>
       </c>
       <c r="N34" t="n">
-        <v>216.3879484066363</v>
+        <v>216.3879484066364</v>
       </c>
       <c r="O34" t="n">
         <v>199.8692937578792</v>
@@ -33600,16 +33600,16 @@
         <v>118.4072591203901</v>
       </c>
       <c r="R34" t="n">
-        <v>63.58075166751156</v>
+        <v>63.58075166751158</v>
       </c>
       <c r="S34" t="n">
-        <v>24.64300463942977</v>
+        <v>24.64300463942978</v>
       </c>
       <c r="T34" t="n">
-        <v>6.041842556354718</v>
+        <v>6.041842556354719</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07712990497474119</v>
+        <v>0.0771299049747412</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.152378025768311</v>
+        <v>3.152378025768312</v>
       </c>
       <c r="H35" t="n">
-        <v>32.28429145639972</v>
+        <v>32.28429145639973</v>
       </c>
       <c r="I35" t="n">
         <v>121.5320538384329</v>
       </c>
       <c r="J35" t="n">
-        <v>267.5541444645534</v>
+        <v>267.5541444645535</v>
       </c>
       <c r="K35" t="n">
-        <v>400.9943062953261</v>
+        <v>400.9943062953262</v>
       </c>
       <c r="L35" t="n">
         <v>497.4688953014332</v>
       </c>
       <c r="M35" t="n">
-        <v>553.5299980171903</v>
+        <v>553.5299980171905</v>
       </c>
       <c r="N35" t="n">
-        <v>562.4866920829046</v>
+        <v>562.4866920829047</v>
       </c>
       <c r="O35" t="n">
-        <v>531.1402330891709</v>
+        <v>531.140233089171</v>
       </c>
       <c r="P35" t="n">
-        <v>453.3159005780157</v>
+        <v>453.3159005780158</v>
       </c>
       <c r="Q35" t="n">
-        <v>340.4213625301879</v>
+        <v>340.421362530188</v>
       </c>
       <c r="R35" t="n">
-        <v>198.0205661611688</v>
+        <v>198.0205661611689</v>
       </c>
       <c r="S35" t="n">
         <v>71.83481426219547</v>
@@ -33728,19 +33728,19 @@
         <v>1.686670940862735</v>
       </c>
       <c r="H36" t="n">
-        <v>16.28969040254273</v>
+        <v>16.28969040254274</v>
       </c>
       <c r="I36" t="n">
-        <v>58.07178458672136</v>
+        <v>58.07178458672137</v>
       </c>
       <c r="J36" t="n">
-        <v>159.3534155137025</v>
+        <v>159.3534155137026</v>
       </c>
       <c r="K36" t="n">
         <v>272.3603685515058</v>
       </c>
       <c r="L36" t="n">
-        <v>366.2221268746039</v>
+        <v>366.222126874604</v>
       </c>
       <c r="M36" t="n">
         <v>427.363948480878</v>
@@ -33752,7 +33752,7 @@
         <v>401.3019233727227</v>
       </c>
       <c r="P36" t="n">
-        <v>322.0801729091305</v>
+        <v>322.0801729091306</v>
       </c>
       <c r="Q36" t="n">
         <v>215.3020660652151</v>
@@ -33761,10 +33761,10 @@
         <v>104.7215519247934</v>
       </c>
       <c r="S36" t="n">
-        <v>31.32917295856876</v>
+        <v>31.32917295856877</v>
       </c>
       <c r="T36" t="n">
-        <v>6.798467520407249</v>
+        <v>6.79846752040725</v>
       </c>
       <c r="U36" t="n">
         <v>0.1109651934778116</v>
@@ -33810,10 +33810,10 @@
         <v>12.57217451088281</v>
       </c>
       <c r="I37" t="n">
-        <v>42.52428760940727</v>
+        <v>42.52428760940728</v>
       </c>
       <c r="J37" t="n">
-        <v>99.97321183142692</v>
+        <v>99.97321183142694</v>
       </c>
       <c r="K37" t="n">
         <v>164.2866975961985</v>
@@ -33822,10 +33822,10 @@
         <v>210.2304109928194</v>
       </c>
       <c r="M37" t="n">
-        <v>221.6584919132434</v>
+        <v>221.6584919132435</v>
       </c>
       <c r="N37" t="n">
-        <v>216.3879484066363</v>
+        <v>216.3879484066364</v>
       </c>
       <c r="O37" t="n">
         <v>199.8692937578792</v>
@@ -33837,16 +33837,16 @@
         <v>118.4072591203901</v>
       </c>
       <c r="R37" t="n">
-        <v>63.58075166751156</v>
+        <v>63.58075166751158</v>
       </c>
       <c r="S37" t="n">
-        <v>24.64300463942977</v>
+        <v>24.64300463942978</v>
       </c>
       <c r="T37" t="n">
-        <v>6.041842556354718</v>
+        <v>6.041842556354719</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07712990497474119</v>
+        <v>0.0771299049747412</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.152378025768311</v>
+        <v>3.152378025768312</v>
       </c>
       <c r="H38" t="n">
-        <v>32.28429145639972</v>
+        <v>32.28429145639973</v>
       </c>
       <c r="I38" t="n">
         <v>121.5320538384329</v>
       </c>
       <c r="J38" t="n">
-        <v>267.5541444645534</v>
+        <v>267.5541444645535</v>
       </c>
       <c r="K38" t="n">
-        <v>400.9943062953261</v>
+        <v>400.9943062953262</v>
       </c>
       <c r="L38" t="n">
         <v>497.4688953014332</v>
       </c>
       <c r="M38" t="n">
-        <v>553.5299980171903</v>
+        <v>553.5299980171905</v>
       </c>
       <c r="N38" t="n">
-        <v>562.4866920829046</v>
+        <v>562.4866920829047</v>
       </c>
       <c r="O38" t="n">
-        <v>531.1402330891709</v>
+        <v>531.140233089171</v>
       </c>
       <c r="P38" t="n">
-        <v>453.3159005780157</v>
+        <v>453.3159005780158</v>
       </c>
       <c r="Q38" t="n">
-        <v>340.4213625301879</v>
+        <v>340.421362530188</v>
       </c>
       <c r="R38" t="n">
-        <v>198.0205661611688</v>
+        <v>198.0205661611689</v>
       </c>
       <c r="S38" t="n">
         <v>71.83481426219547</v>
@@ -33965,19 +33965,19 @@
         <v>1.686670940862735</v>
       </c>
       <c r="H39" t="n">
-        <v>16.28969040254273</v>
+        <v>16.28969040254274</v>
       </c>
       <c r="I39" t="n">
-        <v>58.07178458672136</v>
+        <v>58.07178458672137</v>
       </c>
       <c r="J39" t="n">
-        <v>159.3534155137025</v>
+        <v>159.3534155137026</v>
       </c>
       <c r="K39" t="n">
         <v>272.3603685515058</v>
       </c>
       <c r="L39" t="n">
-        <v>366.2221268746039</v>
+        <v>366.222126874604</v>
       </c>
       <c r="M39" t="n">
         <v>427.363948480878</v>
@@ -33989,7 +33989,7 @@
         <v>401.3019233727227</v>
       </c>
       <c r="P39" t="n">
-        <v>322.0801729091305</v>
+        <v>322.0801729091306</v>
       </c>
       <c r="Q39" t="n">
         <v>215.3020660652151</v>
@@ -33998,10 +33998,10 @@
         <v>104.7215519247934</v>
       </c>
       <c r="S39" t="n">
-        <v>31.32917295856876</v>
+        <v>31.32917295856877</v>
       </c>
       <c r="T39" t="n">
-        <v>6.798467520407249</v>
+        <v>6.79846752040725</v>
       </c>
       <c r="U39" t="n">
         <v>0.1109651934778116</v>
@@ -34047,10 +34047,10 @@
         <v>12.57217451088281</v>
       </c>
       <c r="I40" t="n">
-        <v>42.52428760940727</v>
+        <v>42.52428760940728</v>
       </c>
       <c r="J40" t="n">
-        <v>99.97321183142692</v>
+        <v>99.97321183142694</v>
       </c>
       <c r="K40" t="n">
         <v>164.2866975961985</v>
@@ -34059,10 +34059,10 @@
         <v>210.2304109928194</v>
       </c>
       <c r="M40" t="n">
-        <v>221.6584919132434</v>
+        <v>221.6584919132435</v>
       </c>
       <c r="N40" t="n">
-        <v>216.3879484066363</v>
+        <v>216.3879484066364</v>
       </c>
       <c r="O40" t="n">
         <v>199.8692937578792</v>
@@ -34074,16 +34074,16 @@
         <v>118.4072591203901</v>
       </c>
       <c r="R40" t="n">
-        <v>63.58075166751156</v>
+        <v>63.58075166751158</v>
       </c>
       <c r="S40" t="n">
-        <v>24.64300463942977</v>
+        <v>24.64300463942978</v>
       </c>
       <c r="T40" t="n">
-        <v>6.041842556354718</v>
+        <v>6.041842556354719</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07712990497474119</v>
+        <v>0.0771299049747412</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.152378025768311</v>
+        <v>3.152378025768312</v>
       </c>
       <c r="H41" t="n">
-        <v>32.28429145639972</v>
+        <v>32.28429145639973</v>
       </c>
       <c r="I41" t="n">
         <v>121.5320538384329</v>
       </c>
       <c r="J41" t="n">
-        <v>267.5541444645534</v>
+        <v>267.5541444645535</v>
       </c>
       <c r="K41" t="n">
-        <v>400.9943062953261</v>
+        <v>400.9943062953262</v>
       </c>
       <c r="L41" t="n">
         <v>497.4688953014332</v>
       </c>
       <c r="M41" t="n">
-        <v>553.5299980171903</v>
+        <v>553.5299980171905</v>
       </c>
       <c r="N41" t="n">
-        <v>562.4866920829046</v>
+        <v>562.4866920829047</v>
       </c>
       <c r="O41" t="n">
-        <v>531.1402330891709</v>
+        <v>531.140233089171</v>
       </c>
       <c r="P41" t="n">
-        <v>453.3159005780157</v>
+        <v>453.3159005780158</v>
       </c>
       <c r="Q41" t="n">
-        <v>340.4213625301879</v>
+        <v>340.421362530188</v>
       </c>
       <c r="R41" t="n">
-        <v>198.0205661611688</v>
+        <v>198.0205661611689</v>
       </c>
       <c r="S41" t="n">
         <v>71.83481426219547</v>
@@ -34202,19 +34202,19 @@
         <v>1.686670940862735</v>
       </c>
       <c r="H42" t="n">
-        <v>16.28969040254273</v>
+        <v>16.28969040254274</v>
       </c>
       <c r="I42" t="n">
-        <v>58.07178458672136</v>
+        <v>58.07178458672137</v>
       </c>
       <c r="J42" t="n">
-        <v>159.3534155137025</v>
+        <v>159.3534155137026</v>
       </c>
       <c r="K42" t="n">
         <v>272.3603685515058</v>
       </c>
       <c r="L42" t="n">
-        <v>366.2221268746039</v>
+        <v>366.222126874604</v>
       </c>
       <c r="M42" t="n">
         <v>427.363948480878</v>
@@ -34226,7 +34226,7 @@
         <v>401.3019233727227</v>
       </c>
       <c r="P42" t="n">
-        <v>322.0801729091305</v>
+        <v>322.0801729091306</v>
       </c>
       <c r="Q42" t="n">
         <v>215.3020660652151</v>
@@ -34235,10 +34235,10 @@
         <v>104.7215519247934</v>
       </c>
       <c r="S42" t="n">
-        <v>31.32917295856876</v>
+        <v>31.32917295856877</v>
       </c>
       <c r="T42" t="n">
-        <v>6.798467520407249</v>
+        <v>6.79846752040725</v>
       </c>
       <c r="U42" t="n">
         <v>0.1109651934778116</v>
@@ -34284,10 +34284,10 @@
         <v>12.57217451088281</v>
       </c>
       <c r="I43" t="n">
-        <v>42.52428760940727</v>
+        <v>42.52428760940728</v>
       </c>
       <c r="J43" t="n">
-        <v>99.97321183142692</v>
+        <v>99.97321183142694</v>
       </c>
       <c r="K43" t="n">
         <v>164.2866975961985</v>
@@ -34296,10 +34296,10 @@
         <v>210.2304109928194</v>
       </c>
       <c r="M43" t="n">
-        <v>221.6584919132434</v>
+        <v>221.6584919132435</v>
       </c>
       <c r="N43" t="n">
-        <v>216.3879484066363</v>
+        <v>216.3879484066364</v>
       </c>
       <c r="O43" t="n">
         <v>199.8692937578792</v>
@@ -34311,16 +34311,16 @@
         <v>118.4072591203901</v>
       </c>
       <c r="R43" t="n">
-        <v>63.58075166751156</v>
+        <v>63.58075166751158</v>
       </c>
       <c r="S43" t="n">
-        <v>24.64300463942977</v>
+        <v>24.64300463942978</v>
       </c>
       <c r="T43" t="n">
-        <v>6.041842556354718</v>
+        <v>6.041842556354719</v>
       </c>
       <c r="U43" t="n">
-        <v>0.07712990497474119</v>
+        <v>0.0771299049747412</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.152378025768311</v>
+        <v>3.152378025768312</v>
       </c>
       <c r="H44" t="n">
-        <v>32.28429145639972</v>
+        <v>32.28429145639973</v>
       </c>
       <c r="I44" t="n">
         <v>121.5320538384329</v>
       </c>
       <c r="J44" t="n">
-        <v>267.5541444645534</v>
+        <v>267.5541444645535</v>
       </c>
       <c r="K44" t="n">
-        <v>400.9943062953261</v>
+        <v>400.9943062953262</v>
       </c>
       <c r="L44" t="n">
         <v>497.4688953014332</v>
       </c>
       <c r="M44" t="n">
-        <v>553.5299980171903</v>
+        <v>553.5299980171905</v>
       </c>
       <c r="N44" t="n">
-        <v>562.4866920829046</v>
+        <v>562.4866920829047</v>
       </c>
       <c r="O44" t="n">
-        <v>531.1402330891709</v>
+        <v>531.140233089171</v>
       </c>
       <c r="P44" t="n">
-        <v>453.3159005780157</v>
+        <v>453.3159005780158</v>
       </c>
       <c r="Q44" t="n">
-        <v>340.4213625301879</v>
+        <v>340.421362530188</v>
       </c>
       <c r="R44" t="n">
-        <v>198.0205661611688</v>
+        <v>198.0205661611689</v>
       </c>
       <c r="S44" t="n">
         <v>71.83481426219547</v>
@@ -34439,19 +34439,19 @@
         <v>1.686670940862735</v>
       </c>
       <c r="H45" t="n">
-        <v>16.28969040254273</v>
+        <v>16.28969040254274</v>
       </c>
       <c r="I45" t="n">
-        <v>58.07178458672136</v>
+        <v>58.07178458672137</v>
       </c>
       <c r="J45" t="n">
-        <v>159.3534155137025</v>
+        <v>159.3534155137026</v>
       </c>
       <c r="K45" t="n">
         <v>272.3603685515058</v>
       </c>
       <c r="L45" t="n">
-        <v>366.2221268746039</v>
+        <v>366.222126874604</v>
       </c>
       <c r="M45" t="n">
         <v>427.363948480878</v>
@@ -34463,7 +34463,7 @@
         <v>401.3019233727227</v>
       </c>
       <c r="P45" t="n">
-        <v>322.0801729091305</v>
+        <v>322.0801729091306</v>
       </c>
       <c r="Q45" t="n">
         <v>215.3020660652151</v>
@@ -34472,10 +34472,10 @@
         <v>104.7215519247934</v>
       </c>
       <c r="S45" t="n">
-        <v>31.32917295856876</v>
+        <v>31.32917295856877</v>
       </c>
       <c r="T45" t="n">
-        <v>6.798467520407249</v>
+        <v>6.79846752040725</v>
       </c>
       <c r="U45" t="n">
         <v>0.1109651934778116</v>
@@ -34521,10 +34521,10 @@
         <v>12.57217451088281</v>
       </c>
       <c r="I46" t="n">
-        <v>42.52428760940727</v>
+        <v>42.52428760940728</v>
       </c>
       <c r="J46" t="n">
-        <v>99.97321183142692</v>
+        <v>99.97321183142694</v>
       </c>
       <c r="K46" t="n">
         <v>164.2866975961985</v>
@@ -34533,10 +34533,10 @@
         <v>210.2304109928194</v>
       </c>
       <c r="M46" t="n">
-        <v>221.6584919132434</v>
+        <v>221.6584919132435</v>
       </c>
       <c r="N46" t="n">
-        <v>216.3879484066363</v>
+        <v>216.3879484066364</v>
       </c>
       <c r="O46" t="n">
         <v>199.8692937578792</v>
@@ -34548,16 +34548,16 @@
         <v>118.4072591203901</v>
       </c>
       <c r="R46" t="n">
-        <v>63.58075166751156</v>
+        <v>63.58075166751158</v>
       </c>
       <c r="S46" t="n">
-        <v>24.64300463942977</v>
+        <v>24.64300463942978</v>
       </c>
       <c r="T46" t="n">
-        <v>6.041842556354718</v>
+        <v>6.041842556354719</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07712990497474119</v>
+        <v>0.0771299049747412</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>86.50823993786713</v>
+        <v>255.604855109941</v>
       </c>
       <c r="K11" t="n">
-        <v>505.0498678215103</v>
+        <v>272.8346858909229</v>
       </c>
       <c r="L11" t="n">
-        <v>674.2872727545556</v>
+        <v>261.702480331446</v>
       </c>
       <c r="M11" t="n">
-        <v>323.1837647899176</v>
+        <v>323.1837647899177</v>
       </c>
       <c r="N11" t="n">
-        <v>333.0736284863137</v>
+        <v>333.0736284863138</v>
       </c>
       <c r="O11" t="n">
-        <v>407.6038095372684</v>
+        <v>301.0420216674843</v>
       </c>
       <c r="P11" t="n">
-        <v>222.0829048227461</v>
+        <v>543.8816129942288</v>
       </c>
       <c r="Q11" t="n">
-        <v>118.1156726557385</v>
+        <v>330.4306633156432</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>48.15144822001918</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>32.51578884703585</v>
+        <v>32.51578884703588</v>
       </c>
       <c r="K12" t="n">
-        <v>134.5189295771468</v>
+        <v>212.977465899001</v>
       </c>
       <c r="L12" t="n">
-        <v>598.5080923981889</v>
+        <v>227.6677470947298</v>
       </c>
       <c r="M12" t="n">
         <v>285.2299145588597</v>
       </c>
       <c r="N12" t="n">
-        <v>591.9827515088001</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O12" t="n">
         <v>652.5679982050078</v>
@@ -35507,7 +35507,7 @@
         <v>188.1057654948003</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.32029197919357</v>
+        <v>285.3975797150427</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.614031714754148</v>
+        <v>6.614031714754162</v>
       </c>
       <c r="K13" t="n">
         <v>142.0172057703157</v>
@@ -35583,10 +35583,10 @@
         <v>224.4544216719189</v>
       </c>
       <c r="P13" t="n">
-        <v>168.3012685622193</v>
+        <v>168.3012685622194</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.24521586869568</v>
+        <v>32.24521586869569</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.6048551099409</v>
+        <v>86.50823993786719</v>
       </c>
       <c r="K14" t="n">
-        <v>180.9044552503456</v>
+        <v>505.0498678215104</v>
       </c>
       <c r="L14" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M14" t="n">
-        <v>323.1837647899176</v>
+        <v>323.1837647899177</v>
       </c>
       <c r="N14" t="n">
-        <v>546.5327655351692</v>
+        <v>391.4839681360777</v>
       </c>
       <c r="O14" t="n">
-        <v>301.0420216674842</v>
+        <v>301.0420216674843</v>
       </c>
       <c r="P14" t="n">
-        <v>222.0829048227461</v>
+        <v>222.0829048227462</v>
       </c>
       <c r="Q14" t="n">
         <v>118.1156726557385</v>
       </c>
       <c r="R14" t="n">
-        <v>48.15144822001915</v>
+        <v>48.15144822001918</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>32.51578884703585</v>
+        <v>158.6068241874447</v>
       </c>
       <c r="K15" t="n">
-        <v>134.5189295771468</v>
+        <v>398.9841665897254</v>
       </c>
       <c r="L15" t="n">
-        <v>227.6677470947297</v>
+        <v>357.9235460022283</v>
       </c>
       <c r="M15" t="n">
-        <v>622.2569542784654</v>
+        <v>285.2299145588597</v>
       </c>
       <c r="N15" t="n">
         <v>307.3332884527164</v>
       </c>
       <c r="O15" t="n">
-        <v>652.5679982050078</v>
+        <v>258.7056789282783</v>
       </c>
       <c r="P15" t="n">
-        <v>506.5685341347374</v>
+        <v>506.5685341347375</v>
       </c>
       <c r="Q15" t="n">
-        <v>75.32029197919357</v>
+        <v>285.3975797150427</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.614031714754148</v>
+        <v>6.614031714754162</v>
       </c>
       <c r="K16" t="n">
         <v>142.0172057703157</v>
@@ -35820,10 +35820,10 @@
         <v>224.4544216719189</v>
       </c>
       <c r="P16" t="n">
-        <v>168.3012685622193</v>
+        <v>168.3012685622194</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.24521586869568</v>
+        <v>32.24521586869569</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.6048551099409</v>
+        <v>255.604855109941</v>
       </c>
       <c r="K17" t="n">
-        <v>505.0498678215103</v>
+        <v>505.0498678215104</v>
       </c>
       <c r="L17" t="n">
         <v>679.3636948818964</v>
       </c>
       <c r="M17" t="n">
-        <v>772.6972982827501</v>
+        <v>772.6972982827502</v>
       </c>
       <c r="N17" t="n">
-        <v>770.4205528982978</v>
+        <v>770.420552898298</v>
       </c>
       <c r="O17" t="n">
-        <v>681.8422029302295</v>
+        <v>681.8422029302296</v>
       </c>
       <c r="P17" t="n">
         <v>543.8816129942288</v>
       </c>
       <c r="Q17" t="n">
-        <v>330.4306633156431</v>
+        <v>330.4306633156432</v>
       </c>
       <c r="R17" t="n">
-        <v>48.15144822001972</v>
+        <v>48.15144822001918</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>32.51578884703585</v>
+        <v>32.51578884703588</v>
       </c>
       <c r="K18" t="n">
-        <v>134.5189295771468</v>
+        <v>398.9841665897254</v>
       </c>
       <c r="L18" t="n">
-        <v>227.6677470947297</v>
+        <v>598.508092398189</v>
       </c>
       <c r="M18" t="n">
-        <v>750.9349783088596</v>
+        <v>285.2299145588597</v>
       </c>
       <c r="N18" t="n">
-        <v>786.6756627962699</v>
+        <v>307.3332884527164</v>
       </c>
       <c r="O18" t="n">
-        <v>363.0103684709969</v>
+        <v>354.2894556085753</v>
       </c>
       <c r="P18" t="n">
-        <v>188.1057654948003</v>
+        <v>506.5685341347375</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.32029197919357</v>
+        <v>75.3202919791936</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.614031714754148</v>
+        <v>6.614031714754162</v>
       </c>
       <c r="K19" t="n">
         <v>142.0172057703157</v>
@@ -36057,10 +36057,10 @@
         <v>224.4544216719189</v>
       </c>
       <c r="P19" t="n">
-        <v>168.3012685622193</v>
+        <v>168.3012685622194</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.24521586869568</v>
+        <v>32.24521586869569</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.604855109942</v>
+        <v>255.604855109941</v>
       </c>
       <c r="K20" t="n">
-        <v>505.0498678215103</v>
+        <v>505.0498678215104</v>
       </c>
       <c r="L20" t="n">
         <v>679.3636948818964</v>
       </c>
       <c r="M20" t="n">
-        <v>772.6972982827501</v>
+        <v>772.6972982827502</v>
       </c>
       <c r="N20" t="n">
-        <v>770.4205528982978</v>
+        <v>770.4205528982989</v>
       </c>
       <c r="O20" t="n">
-        <v>681.8422029302295</v>
+        <v>681.8422029302296</v>
       </c>
       <c r="P20" t="n">
         <v>543.8816129942288</v>
       </c>
       <c r="Q20" t="n">
-        <v>330.4306633156431</v>
+        <v>330.4306633156432</v>
       </c>
       <c r="R20" t="n">
-        <v>48.15144822001915</v>
+        <v>48.15144822001918</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>32.51578884703585</v>
+        <v>32.51578884703588</v>
       </c>
       <c r="K21" t="n">
         <v>134.5189295771468</v>
       </c>
       <c r="L21" t="n">
-        <v>227.6677470947297</v>
+        <v>227.6677470947298</v>
       </c>
       <c r="M21" t="n">
-        <v>750.9349783088596</v>
+        <v>461.3773485748482</v>
       </c>
       <c r="N21" t="n">
-        <v>786.6756627962699</v>
+        <v>786.67566279627</v>
       </c>
       <c r="O21" t="n">
-        <v>363.0103684709969</v>
+        <v>652.5679982050078</v>
       </c>
       <c r="P21" t="n">
         <v>188.1057654948003</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.32029197919357</v>
+        <v>75.3202919791936</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.614031714754148</v>
+        <v>6.614031714754162</v>
       </c>
       <c r="K22" t="n">
         <v>142.0172057703157</v>
@@ -36294,10 +36294,10 @@
         <v>224.4544216719189</v>
       </c>
       <c r="P22" t="n">
-        <v>168.3012685622193</v>
+        <v>168.3012685622194</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.24521586869568</v>
+        <v>32.24521586869569</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.6048551099409</v>
+        <v>255.604855109941</v>
       </c>
       <c r="K23" t="n">
-        <v>505.0498678215103</v>
+        <v>505.0498678215104</v>
       </c>
       <c r="L23" t="n">
         <v>679.3636948818964</v>
       </c>
       <c r="M23" t="n">
-        <v>772.6972982827501</v>
+        <v>772.6972982827502</v>
       </c>
       <c r="N23" t="n">
-        <v>770.4205528982978</v>
+        <v>770.420552898298</v>
       </c>
       <c r="O23" t="n">
-        <v>681.8422029302295</v>
+        <v>681.8422029302296</v>
       </c>
       <c r="P23" t="n">
         <v>543.8816129942288</v>
       </c>
       <c r="Q23" t="n">
-        <v>330.4306633156431</v>
+        <v>330.4306633156432</v>
       </c>
       <c r="R23" t="n">
-        <v>48.15144822001915</v>
+        <v>48.15144822001918</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>32.51578884703585</v>
+        <v>32.51578884703588</v>
       </c>
       <c r="K24" t="n">
         <v>134.5189295771468</v>
       </c>
       <c r="L24" t="n">
-        <v>227.6677470947297</v>
+        <v>227.6677470947298</v>
       </c>
       <c r="M24" t="n">
-        <v>750.9349783088596</v>
+        <v>461.3773485748482</v>
       </c>
       <c r="N24" t="n">
-        <v>786.6756627962699</v>
+        <v>786.67566279627</v>
       </c>
       <c r="O24" t="n">
-        <v>258.7056789282782</v>
+        <v>652.5679982050078</v>
       </c>
       <c r="P24" t="n">
-        <v>292.4104550375189</v>
+        <v>188.1057654948003</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.32029197919357</v>
+        <v>75.3202919791936</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.614031714754148</v>
+        <v>6.614031714754162</v>
       </c>
       <c r="K25" t="n">
         <v>142.0172057703157</v>
@@ -36531,10 +36531,10 @@
         <v>224.4544216719189</v>
       </c>
       <c r="P25" t="n">
-        <v>168.3012685622193</v>
+        <v>168.3012685622194</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.24521586869568</v>
+        <v>32.24521586869569</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.6048551099409</v>
+        <v>255.604855109941</v>
       </c>
       <c r="K26" t="n">
-        <v>505.0498678215103</v>
+        <v>505.0498678215104</v>
       </c>
       <c r="L26" t="n">
         <v>679.3636948818964</v>
       </c>
       <c r="M26" t="n">
-        <v>772.6972982827501</v>
+        <v>772.6972982827502</v>
       </c>
       <c r="N26" t="n">
-        <v>770.4205528982978</v>
+        <v>770.420552898298</v>
       </c>
       <c r="O26" t="n">
-        <v>681.8422029302295</v>
+        <v>681.8422029302296</v>
       </c>
       <c r="P26" t="n">
         <v>543.8816129942288</v>
       </c>
       <c r="Q26" t="n">
-        <v>330.4306633156431</v>
+        <v>330.4306633156432</v>
       </c>
       <c r="R26" t="n">
-        <v>48.15144822001915</v>
+        <v>48.15144822001918</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>32.51578884703585</v>
+        <v>32.51578884703588</v>
       </c>
       <c r="K27" t="n">
         <v>134.5189295771468</v>
       </c>
       <c r="L27" t="n">
-        <v>227.6677470947297</v>
+        <v>227.6677470947298</v>
       </c>
       <c r="M27" t="n">
-        <v>750.9349783088596</v>
+        <v>461.3773485748482</v>
       </c>
       <c r="N27" t="n">
-        <v>786.6756627962699</v>
+        <v>786.67566279627</v>
       </c>
       <c r="O27" t="n">
-        <v>363.0103684709969</v>
+        <v>652.5679982050078</v>
       </c>
       <c r="P27" t="n">
         <v>188.1057654948003</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.32029197919357</v>
+        <v>75.3202919791936</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.614031714754148</v>
+        <v>6.614031714754162</v>
       </c>
       <c r="K28" t="n">
         <v>142.0172057703157</v>
@@ -36768,10 +36768,10 @@
         <v>224.4544216719189</v>
       </c>
       <c r="P28" t="n">
-        <v>168.3012685622193</v>
+        <v>168.3012685622194</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.24521586869568</v>
+        <v>32.24521586869569</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.6048551099409</v>
+        <v>255.604855109941</v>
       </c>
       <c r="K29" t="n">
-        <v>505.0498678215103</v>
+        <v>505.0498678215104</v>
       </c>
       <c r="L29" t="n">
         <v>679.3636948818964</v>
       </c>
       <c r="M29" t="n">
-        <v>772.6972982827501</v>
+        <v>772.6972982827502</v>
       </c>
       <c r="N29" t="n">
-        <v>770.4205528982978</v>
+        <v>770.420552898298</v>
       </c>
       <c r="O29" t="n">
-        <v>681.8422029302295</v>
+        <v>681.8422029302296</v>
       </c>
       <c r="P29" t="n">
         <v>543.8816129942288</v>
       </c>
       <c r="Q29" t="n">
-        <v>330.4306633156431</v>
+        <v>330.4306633156432</v>
       </c>
       <c r="R29" t="n">
-        <v>48.15144822001915</v>
+        <v>48.15144822001918</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>32.51578884703585</v>
+        <v>32.51578884703588</v>
       </c>
       <c r="K30" t="n">
         <v>134.5189295771468</v>
       </c>
       <c r="L30" t="n">
-        <v>403.8151811107186</v>
+        <v>227.6677470947298</v>
       </c>
       <c r="M30" t="n">
-        <v>285.2299145588597</v>
+        <v>750.9349783088596</v>
       </c>
       <c r="N30" t="n">
-        <v>786.6756627962699</v>
+        <v>786.67566279627</v>
       </c>
       <c r="O30" t="n">
-        <v>652.5679982050078</v>
+        <v>363.0103684709967</v>
       </c>
       <c r="P30" t="n">
         <v>188.1057654948003</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.32029197919357</v>
+        <v>75.3202919791936</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.614031714754148</v>
+        <v>6.614031714754162</v>
       </c>
       <c r="K31" t="n">
         <v>142.0172057703157</v>
@@ -37005,10 +37005,10 @@
         <v>224.4544216719189</v>
       </c>
       <c r="P31" t="n">
-        <v>168.3012685622193</v>
+        <v>168.3012685622194</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.24521586869568</v>
+        <v>32.24521586869569</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.6048551099409</v>
+        <v>255.604855109941</v>
       </c>
       <c r="K32" t="n">
-        <v>505.0498678215103</v>
+        <v>505.0498678215104</v>
       </c>
       <c r="L32" t="n">
         <v>679.3636948818964</v>
       </c>
       <c r="M32" t="n">
-        <v>772.6972982827501</v>
+        <v>772.6972982827502</v>
       </c>
       <c r="N32" t="n">
-        <v>770.4205528982978</v>
+        <v>770.420552898298</v>
       </c>
       <c r="O32" t="n">
-        <v>681.8422029302295</v>
+        <v>681.8422029302296</v>
       </c>
       <c r="P32" t="n">
         <v>543.8816129942288</v>
       </c>
       <c r="Q32" t="n">
-        <v>330.4306633156431</v>
+        <v>330.4306633156432</v>
       </c>
       <c r="R32" t="n">
-        <v>48.15144822001915</v>
+        <v>48.15144822001918</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>32.51578884703585</v>
+        <v>32.51578884703588</v>
       </c>
       <c r="K33" t="n">
         <v>134.5189295771468</v>
       </c>
       <c r="L33" t="n">
-        <v>417.4524917042723</v>
+        <v>227.6677470947298</v>
       </c>
       <c r="M33" t="n">
         <v>750.9349783088596</v>
       </c>
       <c r="N33" t="n">
-        <v>307.3332884527164</v>
+        <v>786.67566279627</v>
       </c>
       <c r="O33" t="n">
-        <v>652.5679982050078</v>
+        <v>363.0103684709967</v>
       </c>
       <c r="P33" t="n">
         <v>188.1057654948003</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.32029197919357</v>
+        <v>75.3202919791936</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.614031714754148</v>
+        <v>6.614031714754162</v>
       </c>
       <c r="K34" t="n">
         <v>142.0172057703157</v>
@@ -37242,10 +37242,10 @@
         <v>224.4544216719189</v>
       </c>
       <c r="P34" t="n">
-        <v>168.3012685622193</v>
+        <v>168.3012685622194</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.24521586869568</v>
+        <v>32.24521586869569</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.6048551099409</v>
+        <v>255.604855109941</v>
       </c>
       <c r="K35" t="n">
-        <v>505.0498678215103</v>
+        <v>505.0498678215104</v>
       </c>
       <c r="L35" t="n">
         <v>679.3636948818964</v>
       </c>
       <c r="M35" t="n">
-        <v>772.6972982827501</v>
+        <v>772.6972982827502</v>
       </c>
       <c r="N35" t="n">
-        <v>770.4205528982978</v>
+        <v>770.420552898298</v>
       </c>
       <c r="O35" t="n">
-        <v>681.8422029302295</v>
+        <v>681.8422029302296</v>
       </c>
       <c r="P35" t="n">
         <v>543.8816129942288</v>
       </c>
       <c r="Q35" t="n">
-        <v>330.4306633156431</v>
+        <v>330.4306633156432</v>
       </c>
       <c r="R35" t="n">
-        <v>48.15144822001972</v>
+        <v>48.15144822001918</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>32.51578884703585</v>
+        <v>32.51578884703588</v>
       </c>
       <c r="K36" t="n">
         <v>134.5189295771468</v>
       </c>
       <c r="L36" t="n">
-        <v>227.6677470947297</v>
+        <v>227.6677470947298</v>
       </c>
       <c r="M36" t="n">
-        <v>730.6424351825531</v>
+        <v>750.9349783088596</v>
       </c>
       <c r="N36" t="n">
-        <v>307.3332884527164</v>
+        <v>786.67566279627</v>
       </c>
       <c r="O36" t="n">
-        <v>652.5679982050078</v>
+        <v>363.0103684709967</v>
       </c>
       <c r="P36" t="n">
         <v>188.1057654948003</v>
       </c>
       <c r="Q36" t="n">
-        <v>285.3975797150426</v>
+        <v>75.3202919791936</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.614031714754148</v>
+        <v>6.614031714754162</v>
       </c>
       <c r="K37" t="n">
         <v>142.0172057703157</v>
@@ -37479,10 +37479,10 @@
         <v>224.4544216719189</v>
       </c>
       <c r="P37" t="n">
-        <v>168.3012685622193</v>
+        <v>168.3012685622194</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.24521586869568</v>
+        <v>32.24521586869569</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.6048551099409</v>
+        <v>255.604855109941</v>
       </c>
       <c r="K38" t="n">
-        <v>505.0498678215103</v>
+        <v>505.0498678215104</v>
       </c>
       <c r="L38" t="n">
         <v>679.3636948818964</v>
       </c>
       <c r="M38" t="n">
-        <v>772.6972982827511</v>
+        <v>772.6972982827502</v>
       </c>
       <c r="N38" t="n">
-        <v>770.4205528982978</v>
+        <v>770.420552898298</v>
       </c>
       <c r="O38" t="n">
-        <v>681.8422029302295</v>
+        <v>681.8422029302296</v>
       </c>
       <c r="P38" t="n">
         <v>543.8816129942288</v>
       </c>
       <c r="Q38" t="n">
-        <v>330.4306633156431</v>
+        <v>330.4306633156432</v>
       </c>
       <c r="R38" t="n">
-        <v>48.15144822001915</v>
+        <v>48.15144822002063</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>32.51578884703585</v>
+        <v>32.51578884703588</v>
       </c>
       <c r="K39" t="n">
         <v>134.5189295771468</v>
       </c>
       <c r="L39" t="n">
-        <v>227.6677470947297</v>
+        <v>227.6677470947298</v>
       </c>
       <c r="M39" t="n">
-        <v>750.9349783088596</v>
+        <v>461.3773485748482</v>
       </c>
       <c r="N39" t="n">
-        <v>786.6756627962699</v>
+        <v>786.67566279627</v>
       </c>
       <c r="O39" t="n">
-        <v>363.0103684709969</v>
+        <v>652.5679982050078</v>
       </c>
       <c r="P39" t="n">
         <v>188.1057654948003</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.32029197919357</v>
+        <v>75.3202919791936</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>6.614031714754148</v>
+        <v>6.614031714754162</v>
       </c>
       <c r="K40" t="n">
         <v>142.0172057703157</v>
@@ -37716,10 +37716,10 @@
         <v>224.4544216719189</v>
       </c>
       <c r="P40" t="n">
-        <v>168.3012685622193</v>
+        <v>168.3012685622194</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.24521586869568</v>
+        <v>32.24521586869569</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>86.50823993786713</v>
+        <v>144.9185795876314</v>
       </c>
       <c r="K41" t="n">
-        <v>190.2149563842035</v>
+        <v>505.0498678215104</v>
       </c>
       <c r="L41" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M41" t="n">
-        <v>323.1837647899176</v>
+        <v>323.1837647899177</v>
       </c>
       <c r="N41" t="n">
-        <v>333.0736284863137</v>
+        <v>333.0736284863138</v>
       </c>
       <c r="O41" t="n">
-        <v>674.2872727545556</v>
+        <v>301.0420216674843</v>
       </c>
       <c r="P41" t="n">
-        <v>222.0829048227461</v>
+        <v>222.0829048227462</v>
       </c>
       <c r="Q41" t="n">
         <v>118.1156726557385</v>
       </c>
       <c r="R41" t="n">
-        <v>48.15144822001915</v>
+        <v>48.15144822001918</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>32.51578884703585</v>
+        <v>32.51578884703588</v>
       </c>
       <c r="K42" t="n">
         <v>134.5189295771468</v>
       </c>
       <c r="L42" t="n">
-        <v>564.6947868143355</v>
+        <v>227.6677470947298</v>
       </c>
       <c r="M42" t="n">
-        <v>285.2299145588597</v>
+        <v>573.7657386165631</v>
       </c>
       <c r="N42" t="n">
-        <v>307.3332884527164</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O42" t="n">
         <v>652.5679982050078</v>
       </c>
       <c r="P42" t="n">
-        <v>506.5685341347374</v>
+        <v>188.1057654948003</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.32029197919357</v>
+        <v>75.3202919791936</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.614031714754148</v>
+        <v>6.614031714754162</v>
       </c>
       <c r="K43" t="n">
         <v>142.0172057703157</v>
@@ -37953,10 +37953,10 @@
         <v>224.4544216719189</v>
       </c>
       <c r="P43" t="n">
-        <v>168.3012685622193</v>
+        <v>168.3012685622194</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.24521586869568</v>
+        <v>32.24521586869569</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>86.50823993786713</v>
+        <v>86.50823993786719</v>
       </c>
       <c r="K44" t="n">
         <v>180.9044552503456</v>
       </c>
       <c r="L44" t="n">
-        <v>412.6773209626248</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M44" t="n">
-        <v>674.2872727545556</v>
+        <v>383.9408088393641</v>
       </c>
       <c r="N44" t="n">
-        <v>674.2872727545556</v>
+        <v>333.0736284863138</v>
       </c>
       <c r="O44" t="n">
-        <v>301.0420216674842</v>
+        <v>301.0420216674843</v>
       </c>
       <c r="P44" t="n">
-        <v>222.0829048227461</v>
+        <v>543.8816129942288</v>
       </c>
       <c r="Q44" t="n">
         <v>118.1156726557385</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>48.15144822001918</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>32.51578884703585</v>
+        <v>32.51578884703588</v>
       </c>
       <c r="K45" t="n">
-        <v>398.9841665897254</v>
+        <v>134.5189295771468</v>
       </c>
       <c r="L45" t="n">
-        <v>227.6677470947297</v>
+        <v>598.508092398189</v>
       </c>
       <c r="M45" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N45" t="n">
-        <v>384.700052240777</v>
+        <v>307.3332884527164</v>
       </c>
       <c r="O45" t="n">
-        <v>258.7056789282782</v>
+        <v>548.1601030653954</v>
       </c>
       <c r="P45" t="n">
-        <v>506.5685341347374</v>
+        <v>188.1057654948003</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.32029197919357</v>
+        <v>75.3202919791936</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.614031714754148</v>
+        <v>6.614031714754162</v>
       </c>
       <c r="K46" t="n">
         <v>142.0172057703157</v>
@@ -38190,10 +38190,10 @@
         <v>224.4544216719189</v>
       </c>
       <c r="P46" t="n">
-        <v>168.3012685622193</v>
+        <v>168.3012685622194</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.24521586869568</v>
+        <v>32.24521586869569</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
